--- a/docs/draft_RP_questionnaire_2024_08_20.xlsx
+++ b/docs/draft_RP_questionnaire_2024_08_20.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\SANDAG\Survey_Airport\ATC_2024\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\SANDAG\Survey_Airport\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A589688-F92F-45C8-8137-9932D63D0171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392AA049-EFD3-4089-8D14-51B4C6B2BB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{64D2B421-5004-45CF-B31B-2A12FE5EEB6F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{64D2B421-5004-45CF-B31B-2A12FE5EEB6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3288" uniqueCount="966">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3286" uniqueCount="965">
   <si>
     <t>Market segment</t>
   </si>
@@ -2026,9 +2026,6 @@
   </si>
   <si>
     <t>CONTRACTOR</t>
-  </si>
-  <si>
-    <t>moved exhibitor, not sure if that's what you meant</t>
   </si>
   <si>
     <t>NOT_APPLICABLE</t>
@@ -6717,9 +6714,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25787056-40F8-411C-94B7-BC75B699FCD4}">
   <dimension ref="A1:H1249"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A967" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E992" sqref="E992"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A255" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A222" sqref="A222:XFD310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10094,7 +10091,7 @@
         <v>3</v>
       </c>
       <c r="D224" s="10" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E224" s="15"/>
     </row>
@@ -10109,7 +10106,7 @@
         <v>4</v>
       </c>
       <c r="D225" s="10" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E225" s="19"/>
     </row>
@@ -10124,7 +10121,7 @@
         <v>5</v>
       </c>
       <c r="D226" s="10" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E226" s="19"/>
     </row>
@@ -10139,7 +10136,7 @@
         <v>6</v>
       </c>
       <c r="D227" s="10" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E227" s="19"/>
     </row>
@@ -10154,7 +10151,7 @@
         <v>7</v>
       </c>
       <c r="D228" s="10" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E228" s="18"/>
     </row>
@@ -10169,7 +10166,7 @@
         <v>8</v>
       </c>
       <c r="D229" s="10" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E229" s="19"/>
     </row>
@@ -10184,7 +10181,7 @@
         <v>9</v>
       </c>
       <c r="D230" s="10" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E230" s="19"/>
     </row>
@@ -10199,7 +10196,7 @@
         <v>10</v>
       </c>
       <c r="D231" s="10" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E231" s="19"/>
     </row>
@@ -10214,7 +10211,7 @@
         <v>11</v>
       </c>
       <c r="D232" s="10" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E232" s="19"/>
     </row>
@@ -10244,7 +10241,7 @@
         <v>13</v>
       </c>
       <c r="D234" s="10" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E234" s="19"/>
     </row>
@@ -10259,7 +10256,7 @@
         <v>14</v>
       </c>
       <c r="D235" s="10" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E235" s="19"/>
     </row>
@@ -10274,7 +10271,7 @@
         <v>15</v>
       </c>
       <c r="D236" s="10" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E236" s="19"/>
     </row>
@@ -10289,7 +10286,7 @@
         <v>16</v>
       </c>
       <c r="D237" s="10" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E237" s="19"/>
     </row>
@@ -10304,7 +10301,7 @@
         <v>17</v>
       </c>
       <c r="D238" s="10" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E238" s="18"/>
     </row>
@@ -10319,7 +10316,7 @@
         <v>18</v>
       </c>
       <c r="D239" s="10" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E239" s="18"/>
     </row>
@@ -10334,7 +10331,7 @@
         <v>19</v>
       </c>
       <c r="D240" s="10" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E240" s="18"/>
     </row>
@@ -10349,7 +10346,7 @@
         <v>20</v>
       </c>
       <c r="D241" s="10" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E241" s="18"/>
     </row>
@@ -10364,7 +10361,7 @@
         <v>21</v>
       </c>
       <c r="D242" s="10" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E242" s="18"/>
     </row>
@@ -10379,7 +10376,7 @@
         <v>22</v>
       </c>
       <c r="D243" s="10" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E243" s="16"/>
     </row>
@@ -10394,7 +10391,7 @@
         <v>23</v>
       </c>
       <c r="D244" s="10" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E244" s="16"/>
     </row>
@@ -10409,7 +10406,7 @@
         <v>24</v>
       </c>
       <c r="D245" s="10" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E245" s="15"/>
     </row>
@@ -10424,7 +10421,7 @@
         <v>25</v>
       </c>
       <c r="D246" s="10" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E246" s="15"/>
     </row>
@@ -10439,7 +10436,7 @@
         <v>26</v>
       </c>
       <c r="D247" s="10" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E247" s="15"/>
     </row>
@@ -10454,7 +10451,7 @@
         <v>27</v>
       </c>
       <c r="D248" s="10" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E248" s="15"/>
     </row>
@@ -10469,7 +10466,7 @@
         <v>28</v>
       </c>
       <c r="D249" s="10" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E249" s="15"/>
     </row>
@@ -10484,7 +10481,7 @@
         <v>29</v>
       </c>
       <c r="D250" s="10" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E250" s="15"/>
     </row>
@@ -10499,7 +10496,7 @@
         <v>30</v>
       </c>
       <c r="D251" s="10" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E251" s="15"/>
     </row>
@@ -10514,7 +10511,7 @@
         <v>31</v>
       </c>
       <c r="D252" s="10" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E252" s="15"/>
     </row>
@@ -10529,7 +10526,7 @@
         <v>32</v>
       </c>
       <c r="D253" s="10" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E253" s="15"/>
     </row>
@@ -10544,7 +10541,7 @@
         <v>33</v>
       </c>
       <c r="D254" s="10" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E254" s="15"/>
     </row>
@@ -10559,7 +10556,7 @@
         <v>34</v>
       </c>
       <c r="D255" s="10" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E255" s="15"/>
     </row>
@@ -10574,7 +10571,7 @@
         <v>35</v>
       </c>
       <c r="D256" s="10" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E256" s="15"/>
     </row>
@@ -10589,7 +10586,7 @@
         <v>36</v>
       </c>
       <c r="D257" s="10" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E257" s="15"/>
     </row>
@@ -10604,7 +10601,7 @@
         <v>37</v>
       </c>
       <c r="D258" s="10" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E258" s="15"/>
     </row>
@@ -10619,7 +10616,7 @@
         <v>38</v>
       </c>
       <c r="D259" s="10" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E259" s="15"/>
     </row>
@@ -10634,7 +10631,7 @@
         <v>39</v>
       </c>
       <c r="D260" s="10" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E260" s="15"/>
     </row>
@@ -10649,7 +10646,7 @@
         <v>40</v>
       </c>
       <c r="D261" s="10" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E261" s="15"/>
     </row>
@@ -10664,7 +10661,7 @@
         <v>41</v>
       </c>
       <c r="D262" s="10" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E262" s="15"/>
     </row>
@@ -10679,7 +10676,7 @@
         <v>42</v>
       </c>
       <c r="D263" s="10" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E263" s="15"/>
     </row>
@@ -10694,7 +10691,7 @@
         <v>43</v>
       </c>
       <c r="D264" s="10" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E264" s="15"/>
     </row>
@@ -10709,7 +10706,7 @@
         <v>44</v>
       </c>
       <c r="D265" s="10" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E265" s="15"/>
     </row>
@@ -10724,7 +10721,7 @@
         <v>45</v>
       </c>
       <c r="D266" s="10" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E266" s="15"/>
     </row>
@@ -10739,7 +10736,7 @@
         <v>46</v>
       </c>
       <c r="D267" s="10" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E267" s="15"/>
     </row>
@@ -10754,7 +10751,7 @@
         <v>47</v>
       </c>
       <c r="D268" s="10" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E268" s="15"/>
     </row>
@@ -10769,7 +10766,7 @@
         <v>48</v>
       </c>
       <c r="D269" s="10" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E269" s="15"/>
     </row>
@@ -10784,7 +10781,7 @@
         <v>49</v>
       </c>
       <c r="D270" s="10" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E270" s="15"/>
     </row>
@@ -10799,7 +10796,7 @@
         <v>50</v>
       </c>
       <c r="D271" s="10" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E271" s="15"/>
     </row>
@@ -10814,7 +10811,7 @@
         <v>51</v>
       </c>
       <c r="D272" s="10" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E272" s="15"/>
     </row>
@@ -10829,7 +10826,7 @@
         <v>52</v>
       </c>
       <c r="D273" s="10" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E273" s="15"/>
     </row>
@@ -10844,7 +10841,7 @@
         <v>53</v>
       </c>
       <c r="D274" s="10" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E274" s="15"/>
     </row>
@@ -10859,7 +10856,7 @@
         <v>54</v>
       </c>
       <c r="D275" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E275" s="15"/>
     </row>
@@ -10874,7 +10871,7 @@
         <v>55</v>
       </c>
       <c r="D276" s="10" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E276" s="15"/>
     </row>
@@ -10889,7 +10886,7 @@
         <v>56</v>
       </c>
       <c r="D277" s="10" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="E277" s="15"/>
     </row>
@@ -10904,7 +10901,7 @@
         <v>57</v>
       </c>
       <c r="D278" s="10" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E278" s="15"/>
     </row>
@@ -10919,7 +10916,7 @@
         <v>58</v>
       </c>
       <c r="D279" s="10" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E279" s="15"/>
     </row>
@@ -10934,7 +10931,7 @@
         <v>59</v>
       </c>
       <c r="D280" s="10" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E280" s="15"/>
     </row>
@@ -10949,7 +10946,7 @@
         <v>60</v>
       </c>
       <c r="D281" s="10" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E281" s="15"/>
     </row>
@@ -10964,7 +10961,7 @@
         <v>61</v>
       </c>
       <c r="D282" s="10" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E282" s="15"/>
     </row>
@@ -10979,7 +10976,7 @@
         <v>62</v>
       </c>
       <c r="D283" s="10" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E283" s="15"/>
     </row>
@@ -10994,7 +10991,7 @@
         <v>63</v>
       </c>
       <c r="D284" s="10" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E284" s="15"/>
     </row>
@@ -11009,7 +11006,7 @@
         <v>64</v>
       </c>
       <c r="D285" s="10" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="E285" s="15"/>
     </row>
@@ -11024,7 +11021,7 @@
         <v>65</v>
       </c>
       <c r="D286" s="10" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="E286" s="15"/>
     </row>
@@ -11039,7 +11036,7 @@
         <v>66</v>
       </c>
       <c r="D287" s="10" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E287" s="15"/>
     </row>
@@ -11054,11 +11051,11 @@
         <v>67</v>
       </c>
       <c r="D288" s="10" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E288" s="15"/>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="15">
         <v>10</v>
       </c>
@@ -11069,11 +11066,11 @@
         <v>68</v>
       </c>
       <c r="D289" s="10" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E289" s="15"/>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="15">
         <v>10</v>
       </c>
@@ -11084,11 +11081,11 @@
         <v>69</v>
       </c>
       <c r="D290" s="10" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E290" s="15"/>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" s="15">
         <v>10</v>
       </c>
@@ -11099,11 +11096,11 @@
         <v>70</v>
       </c>
       <c r="D291" s="10" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="E291" s="15"/>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" s="15">
         <v>10</v>
       </c>
@@ -11114,11 +11111,11 @@
         <v>71</v>
       </c>
       <c r="D292" s="10" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E292" s="15"/>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" s="15">
         <v>10</v>
       </c>
@@ -11129,11 +11126,11 @@
         <v>72</v>
       </c>
       <c r="D293" s="10" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E293" s="15"/>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" s="15">
         <v>10</v>
       </c>
@@ -11144,11 +11141,11 @@
         <v>73</v>
       </c>
       <c r="D294" s="10" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E294" s="15"/>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" s="15">
         <v>10</v>
       </c>
@@ -11159,11 +11156,11 @@
         <v>74</v>
       </c>
       <c r="D295" s="10" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E295" s="15"/>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" s="15">
         <v>10</v>
       </c>
@@ -11174,11 +11171,11 @@
         <v>75</v>
       </c>
       <c r="D296" s="10" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="E296" s="15"/>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" s="15">
         <v>10</v>
       </c>
@@ -11189,11 +11186,11 @@
         <v>76</v>
       </c>
       <c r="D297" s="10" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E297" s="15"/>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" s="15">
         <v>10</v>
       </c>
@@ -11204,11 +11201,11 @@
         <v>77</v>
       </c>
       <c r="D298" s="10" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E298" s="15"/>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" s="15">
         <v>10</v>
       </c>
@@ -11219,11 +11216,11 @@
         <v>78</v>
       </c>
       <c r="D299" s="10" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="E299" s="15"/>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" s="15">
         <v>10</v>
       </c>
@@ -11234,11 +11231,11 @@
         <v>79</v>
       </c>
       <c r="D300" s="10" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="E300" s="16"/>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" s="15">
         <v>10</v>
       </c>
@@ -11249,11 +11246,11 @@
         <v>80</v>
       </c>
       <c r="D301" s="10" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E301" s="16"/>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" s="15">
         <v>10</v>
       </c>
@@ -11264,11 +11261,11 @@
         <v>81</v>
       </c>
       <c r="D302" s="10" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E302" s="15"/>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" s="15">
         <v>10</v>
       </c>
@@ -11279,11 +11276,11 @@
         <v>82</v>
       </c>
       <c r="D303" s="10" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E303" s="15"/>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" s="15">
         <v>10</v>
       </c>
@@ -11294,14 +11291,11 @@
         <v>83</v>
       </c>
       <c r="D304" s="10" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E304" s="15"/>
-      <c r="H304" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" s="15">
         <v>10</v>
       </c>
@@ -11312,14 +11306,11 @@
         <v>84</v>
       </c>
       <c r="D305" s="10" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E305" s="15"/>
-      <c r="H305" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" s="15">
         <v>10</v>
       </c>
@@ -11330,11 +11321,11 @@
         <v>85</v>
       </c>
       <c r="D306" s="10" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E306" s="15"/>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" s="15">
         <v>10</v>
       </c>
@@ -11345,11 +11336,11 @@
         <v>86</v>
       </c>
       <c r="D307" s="10" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E307" s="15"/>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" s="15">
         <v>10</v>
       </c>
@@ -11360,11 +11351,11 @@
         <v>87</v>
       </c>
       <c r="D308" s="10" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E308" s="15"/>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" s="15">
         <v>10</v>
       </c>
@@ -11375,11 +11366,11 @@
         <v>88</v>
       </c>
       <c r="D309" s="10" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E309" s="15"/>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" s="15">
         <v>10</v>
       </c>
@@ -11390,11 +11381,11 @@
         <v>99</v>
       </c>
       <c r="D310" s="10" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E310" s="15"/>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" s="14">
         <v>13</v>
       </c>
@@ -11409,7 +11400,7 @@
       </c>
       <c r="E311" s="15"/>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" s="14">
         <v>13</v>
       </c>
@@ -11424,7 +11415,7 @@
       </c>
       <c r="E312" s="15"/>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" s="14">
         <v>13</v>
       </c>
@@ -11439,7 +11430,7 @@
       </c>
       <c r="E313" s="15"/>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" s="14">
         <v>13</v>
       </c>
@@ -11454,7 +11445,7 @@
       </c>
       <c r="E314" s="15"/>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" s="14">
         <v>13</v>
       </c>
@@ -11469,7 +11460,7 @@
       </c>
       <c r="E315" s="15"/>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" s="14">
         <v>13</v>
       </c>
@@ -11484,7 +11475,7 @@
       </c>
       <c r="E316" s="15"/>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" s="14">
         <v>13</v>
       </c>
@@ -11499,7 +11490,7 @@
       </c>
       <c r="E317" s="15"/>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" s="14">
         <v>13</v>
       </c>
@@ -11514,7 +11505,7 @@
       </c>
       <c r="E318" s="15"/>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" s="14">
         <v>13</v>
       </c>
@@ -11529,7 +11520,7 @@
       </c>
       <c r="E319" s="15"/>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" s="14">
         <v>13</v>
       </c>
@@ -12413,7 +12404,7 @@
         <v>642</v>
       </c>
       <c r="E378" s="15" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.3">
@@ -12637,7 +12628,7 @@
         <v>99</v>
       </c>
       <c r="D393" s="15" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E393" s="14"/>
     </row>
@@ -12652,7 +12643,7 @@
         <v>0</v>
       </c>
       <c r="D394" s="15" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E394" s="14"/>
     </row>
@@ -12667,7 +12658,7 @@
         <v>1</v>
       </c>
       <c r="D395" s="15" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E395" s="14"/>
     </row>
@@ -12682,7 +12673,7 @@
         <v>2</v>
       </c>
       <c r="D396" s="15" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E396" s="14"/>
     </row>
@@ -12697,7 +12688,7 @@
         <v>3</v>
       </c>
       <c r="D397" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E397" s="14"/>
     </row>
@@ -12712,7 +12703,7 @@
         <v>4</v>
       </c>
       <c r="D398" s="15" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E398" s="14"/>
     </row>
@@ -12727,7 +12718,7 @@
         <v>5</v>
       </c>
       <c r="D399" s="15" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E399" s="14"/>
     </row>
@@ -12742,7 +12733,7 @@
         <v>6</v>
       </c>
       <c r="D400" s="15" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E400" s="14"/>
     </row>
@@ -12757,7 +12748,7 @@
         <v>7</v>
       </c>
       <c r="D401" s="15" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E401" s="14"/>
     </row>
@@ -12772,7 +12763,7 @@
         <v>8</v>
       </c>
       <c r="D402" s="15" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E402" s="14"/>
     </row>
@@ -12787,7 +12778,7 @@
         <v>0</v>
       </c>
       <c r="D403" s="15" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E403" s="14"/>
     </row>
@@ -12802,7 +12793,7 @@
         <v>1</v>
       </c>
       <c r="D404" s="15" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E404" s="14"/>
     </row>
@@ -12817,7 +12808,7 @@
         <v>2</v>
       </c>
       <c r="D405" s="15" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E405" s="14"/>
     </row>
@@ -12832,7 +12823,7 @@
         <v>3</v>
       </c>
       <c r="D406" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E406" s="14"/>
     </row>
@@ -12847,7 +12838,7 @@
         <v>4</v>
       </c>
       <c r="D407" s="15" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E407" s="14"/>
     </row>
@@ -12862,7 +12853,7 @@
         <v>5</v>
       </c>
       <c r="D408" s="15" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E408" s="14"/>
     </row>
@@ -12877,7 +12868,7 @@
         <v>6</v>
       </c>
       <c r="D409" s="15" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E409" s="14"/>
     </row>
@@ -12892,7 +12883,7 @@
         <v>7</v>
       </c>
       <c r="D410" s="15" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E410" s="14"/>
     </row>
@@ -12907,7 +12898,7 @@
         <v>8</v>
       </c>
       <c r="D411" s="15" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E411" s="14"/>
     </row>
@@ -12922,7 +12913,7 @@
         <v>1</v>
       </c>
       <c r="D412" s="15" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E412" s="14"/>
     </row>
@@ -12937,7 +12928,7 @@
         <v>2</v>
       </c>
       <c r="D413" s="15" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E413" s="14"/>
     </row>
@@ -12952,7 +12943,7 @@
         <v>3</v>
       </c>
       <c r="D414" s="15" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E414" s="14"/>
     </row>
@@ -12967,7 +12958,7 @@
         <v>4</v>
       </c>
       <c r="D415" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E415" s="14"/>
     </row>
@@ -12982,7 +12973,7 @@
         <v>5</v>
       </c>
       <c r="D416" s="15" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E416" s="14"/>
     </row>
@@ -12997,7 +12988,7 @@
         <v>6</v>
       </c>
       <c r="D417" s="15" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E417" s="14"/>
     </row>
@@ -13012,7 +13003,7 @@
         <v>7</v>
       </c>
       <c r="D418" s="15" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E418" s="14"/>
     </row>
@@ -13027,7 +13018,7 @@
         <v>8</v>
       </c>
       <c r="D419" s="15" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E419" s="14"/>
     </row>
@@ -13042,7 +13033,7 @@
         <v>9</v>
       </c>
       <c r="D420" s="15" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E420" s="14"/>
     </row>
@@ -13057,7 +13048,7 @@
         <v>10</v>
       </c>
       <c r="D421" s="15" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E421" s="14"/>
     </row>
@@ -13072,7 +13063,7 @@
         <v>11</v>
       </c>
       <c r="D422" s="15" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E422" s="14"/>
     </row>
@@ -13087,7 +13078,7 @@
         <v>1</v>
       </c>
       <c r="D423" s="15" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E423" s="14"/>
     </row>
@@ -13102,7 +13093,7 @@
         <v>2</v>
       </c>
       <c r="D424" s="15" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E424" s="14"/>
     </row>
@@ -13117,7 +13108,7 @@
         <v>3</v>
       </c>
       <c r="D425" s="15" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E425" s="14"/>
     </row>
@@ -13132,7 +13123,7 @@
         <v>4</v>
       </c>
       <c r="D426" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E426" s="14"/>
     </row>
@@ -13147,7 +13138,7 @@
         <v>5</v>
       </c>
       <c r="D427" s="15" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E427" s="14"/>
     </row>
@@ -13162,7 +13153,7 @@
         <v>6</v>
       </c>
       <c r="D428" s="15" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E428" s="14"/>
     </row>
@@ -13177,7 +13168,7 @@
         <v>7</v>
       </c>
       <c r="D429" s="15" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E429" s="14"/>
     </row>
@@ -13192,7 +13183,7 @@
         <v>8</v>
       </c>
       <c r="D430" s="15" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E430" s="14"/>
     </row>
@@ -13207,7 +13198,7 @@
         <v>9</v>
       </c>
       <c r="D431" s="15" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E431" s="14"/>
     </row>
@@ -13222,7 +13213,7 @@
         <v>10</v>
       </c>
       <c r="D432" s="15" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E432" s="14"/>
     </row>
@@ -13237,7 +13228,7 @@
         <v>11</v>
       </c>
       <c r="D433" s="15" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E433" s="14"/>
     </row>
@@ -13252,7 +13243,7 @@
         <v>1</v>
       </c>
       <c r="D434" s="15" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E434" s="14"/>
     </row>
@@ -13267,7 +13258,7 @@
         <v>2</v>
       </c>
       <c r="D435" s="15" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E435" s="14"/>
     </row>
@@ -13282,7 +13273,7 @@
         <v>3</v>
       </c>
       <c r="D436" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E436" s="14"/>
     </row>
@@ -13297,7 +13288,7 @@
         <v>4</v>
       </c>
       <c r="D437" s="15" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E437" s="14"/>
     </row>
@@ -13312,7 +13303,7 @@
         <v>5</v>
       </c>
       <c r="D438" s="15" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E438" s="14"/>
     </row>
@@ -13327,7 +13318,7 @@
         <v>6</v>
       </c>
       <c r="D439" s="15" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E439" s="14"/>
     </row>
@@ -13342,7 +13333,7 @@
         <v>7</v>
       </c>
       <c r="D440" s="15" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E440" s="14"/>
     </row>
@@ -13387,7 +13378,7 @@
         <v>1</v>
       </c>
       <c r="D443" s="15" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E443" s="14"/>
     </row>
@@ -13402,7 +13393,7 @@
         <v>2</v>
       </c>
       <c r="D444" s="15" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E444" s="14"/>
     </row>
@@ -13417,7 +13408,7 @@
         <v>3</v>
       </c>
       <c r="D445" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E445" s="14"/>
     </row>
@@ -13432,7 +13423,7 @@
         <v>4</v>
       </c>
       <c r="D446" s="15" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E446" s="14"/>
     </row>
@@ -13447,7 +13438,7 @@
         <v>5</v>
       </c>
       <c r="D447" s="15" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E447" s="14"/>
     </row>
@@ -13462,7 +13453,7 @@
         <v>6</v>
       </c>
       <c r="D448" s="15" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E448" s="14"/>
     </row>
@@ -13477,7 +13468,7 @@
         <v>7</v>
       </c>
       <c r="D449" s="15" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E449" s="14"/>
     </row>
@@ -13645,7 +13636,7 @@
         <v>366</v>
       </c>
       <c r="E460" s="15" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.3">
@@ -13674,7 +13665,7 @@
         <v>1</v>
       </c>
       <c r="D462" s="15" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E462" s="15"/>
     </row>
@@ -13689,7 +13680,7 @@
         <v>2</v>
       </c>
       <c r="D463" s="15" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E463" s="15"/>
     </row>
@@ -13704,7 +13695,7 @@
         <v>3</v>
       </c>
       <c r="D464" s="15" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E464" s="15"/>
     </row>
@@ -13719,7 +13710,7 @@
         <v>4</v>
       </c>
       <c r="D465" s="15" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E465" s="15"/>
     </row>
@@ -13734,7 +13725,7 @@
         <v>5</v>
       </c>
       <c r="D466" s="15" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E466" s="15"/>
     </row>
@@ -13749,7 +13740,7 @@
         <v>6</v>
       </c>
       <c r="D467" s="15" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E467" s="15"/>
     </row>
@@ -13764,7 +13755,7 @@
         <v>7</v>
       </c>
       <c r="D468" s="15" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E468" s="15"/>
     </row>
@@ -13779,10 +13770,10 @@
         <v>8</v>
       </c>
       <c r="D469" s="15" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E469" s="15" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.3">
@@ -13796,10 +13787,10 @@
         <v>9</v>
       </c>
       <c r="D470" s="15" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E470" s="15" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.3">
@@ -13813,10 +13804,10 @@
         <v>10</v>
       </c>
       <c r="D471" s="15" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E471" s="15" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.3">
@@ -13905,7 +13896,7 @@
         <v>5</v>
       </c>
       <c r="D477" s="14" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E477" s="15"/>
     </row>
@@ -13920,7 +13911,7 @@
         <v>6</v>
       </c>
       <c r="D478" s="14" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E478" s="15"/>
     </row>
@@ -13935,7 +13926,7 @@
         <v>7</v>
       </c>
       <c r="D479" s="14" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E479" s="15"/>
     </row>
@@ -13950,7 +13941,7 @@
         <v>8</v>
       </c>
       <c r="D480" s="14" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E480" s="15"/>
     </row>
@@ -13965,7 +13956,7 @@
         <v>9</v>
       </c>
       <c r="D481" s="14" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E481" s="15"/>
     </row>
@@ -13980,7 +13971,7 @@
         <v>10</v>
       </c>
       <c r="D482" s="14" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E482" s="15"/>
     </row>
@@ -14010,7 +14001,7 @@
         <v>12</v>
       </c>
       <c r="D484" s="14" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E484" s="15"/>
     </row>
@@ -14040,7 +14031,7 @@
         <v>14</v>
       </c>
       <c r="D486" s="14" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E486" s="15"/>
     </row>
@@ -14055,7 +14046,7 @@
         <v>15</v>
       </c>
       <c r="D487" s="14" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E487" s="15"/>
     </row>
@@ -14070,7 +14061,7 @@
         <v>16</v>
       </c>
       <c r="D488" s="14" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E488" s="15"/>
     </row>
@@ -14085,7 +14076,7 @@
         <v>17</v>
       </c>
       <c r="D489" s="14" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E489" s="15"/>
     </row>
@@ -14100,7 +14091,7 @@
         <v>18</v>
       </c>
       <c r="D490" s="14" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E490" s="15"/>
       <c r="G490" s="26"/>
@@ -14116,7 +14107,7 @@
         <v>19</v>
       </c>
       <c r="D491" s="14" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E491" s="15"/>
     </row>
@@ -14131,7 +14122,7 @@
         <v>20</v>
       </c>
       <c r="D492" s="14" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E492" s="15"/>
     </row>
@@ -14161,7 +14152,7 @@
         <v>22</v>
       </c>
       <c r="D494" s="14" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E494" s="15"/>
     </row>
@@ -14176,7 +14167,7 @@
         <v>23</v>
       </c>
       <c r="D495" s="14" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E495" s="15"/>
     </row>
@@ -14191,7 +14182,7 @@
         <v>24</v>
       </c>
       <c r="D496" s="14" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E496" s="15"/>
     </row>
@@ -14206,7 +14197,7 @@
         <v>25</v>
       </c>
       <c r="D497" s="14" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E497" s="15"/>
     </row>
@@ -14236,7 +14227,7 @@
         <v>27</v>
       </c>
       <c r="D499" s="14" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E499" s="15"/>
     </row>
@@ -14266,7 +14257,7 @@
         <v>29</v>
       </c>
       <c r="D501" s="14" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E501" s="15"/>
     </row>
@@ -14281,7 +14272,7 @@
         <v>30</v>
       </c>
       <c r="D502" s="14" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E502" s="15"/>
     </row>
@@ -14296,7 +14287,7 @@
         <v>31</v>
       </c>
       <c r="D503" s="14" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E503" s="15"/>
     </row>
@@ -14341,7 +14332,7 @@
         <v>34</v>
       </c>
       <c r="D506" s="14" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E506" s="15"/>
     </row>
@@ -14356,7 +14347,7 @@
         <v>35</v>
       </c>
       <c r="D507" s="14" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E507" s="15"/>
     </row>
@@ -14371,7 +14362,7 @@
         <v>36</v>
       </c>
       <c r="D508" s="14" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E508" s="15"/>
     </row>
@@ -14386,7 +14377,7 @@
         <v>37</v>
       </c>
       <c r="D509" s="14" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E509" s="15"/>
     </row>
@@ -14401,7 +14392,7 @@
         <v>38</v>
       </c>
       <c r="D510" s="14" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E510" s="15"/>
     </row>
@@ -14416,7 +14407,7 @@
         <v>39</v>
       </c>
       <c r="D511" s="14" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E511" s="15"/>
     </row>
@@ -14431,7 +14422,7 @@
         <v>40</v>
       </c>
       <c r="D512" s="14" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E512" s="15"/>
     </row>
@@ -14446,7 +14437,7 @@
         <v>41</v>
       </c>
       <c r="D513" s="14" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E513" s="15"/>
     </row>
@@ -14461,7 +14452,7 @@
         <v>42</v>
       </c>
       <c r="D514" s="14" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E514" s="15"/>
     </row>
@@ -14476,7 +14467,7 @@
         <v>43</v>
       </c>
       <c r="D515" s="14" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E515" s="15"/>
     </row>
@@ -14491,7 +14482,7 @@
         <v>44</v>
       </c>
       <c r="D516" s="14" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E516" s="15"/>
     </row>
@@ -14506,7 +14497,7 @@
         <v>45</v>
       </c>
       <c r="D517" s="14" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E517" s="15"/>
     </row>
@@ -14521,7 +14512,7 @@
         <v>46</v>
       </c>
       <c r="D518" s="14" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E518" s="15"/>
     </row>
@@ -14536,7 +14527,7 @@
         <v>47</v>
       </c>
       <c r="D519" s="14" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E519" s="15"/>
     </row>
@@ -14551,7 +14542,7 @@
         <v>48</v>
       </c>
       <c r="D520" s="14" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E520" s="15"/>
     </row>
@@ -14566,7 +14557,7 @@
         <v>49</v>
       </c>
       <c r="D521" s="14" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E521" s="15"/>
     </row>
@@ -14611,7 +14602,7 @@
         <v>52</v>
       </c>
       <c r="D524" s="14" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E524" s="15"/>
     </row>
@@ -14626,7 +14617,7 @@
         <v>53</v>
       </c>
       <c r="D525" s="14" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E525" s="15"/>
     </row>
@@ -14641,7 +14632,7 @@
         <v>54</v>
       </c>
       <c r="D526" s="14" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E526" s="15"/>
     </row>
@@ -14671,7 +14662,7 @@
         <v>56</v>
       </c>
       <c r="D528" s="14" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E528" s="15"/>
     </row>
@@ -14686,7 +14677,7 @@
         <v>57</v>
       </c>
       <c r="D529" s="14" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E529" s="15"/>
     </row>
@@ -14701,7 +14692,7 @@
         <v>58</v>
       </c>
       <c r="D530" s="14" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E530" s="15"/>
     </row>
@@ -14716,7 +14707,7 @@
         <v>59</v>
       </c>
       <c r="D531" s="14" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E531" s="15"/>
     </row>
@@ -14731,7 +14722,7 @@
         <v>60</v>
       </c>
       <c r="D532" s="14" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E532" s="15"/>
     </row>
@@ -14746,7 +14737,7 @@
         <v>61</v>
       </c>
       <c r="D533" s="14" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E533" s="15"/>
     </row>
@@ -14776,7 +14767,7 @@
         <v>63</v>
       </c>
       <c r="D535" s="14" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E535" s="15"/>
     </row>
@@ -14821,7 +14812,7 @@
         <v>1</v>
       </c>
       <c r="D538" s="15" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E538" s="15"/>
     </row>
@@ -14836,7 +14827,7 @@
         <v>2</v>
       </c>
       <c r="D539" s="15" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E539" s="15"/>
     </row>
@@ -14851,7 +14842,7 @@
         <v>3</v>
       </c>
       <c r="D540" s="15" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E540" s="15"/>
     </row>
@@ -14866,7 +14857,7 @@
         <v>4</v>
       </c>
       <c r="D541" s="15" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E541" s="15"/>
     </row>
@@ -14881,7 +14872,7 @@
         <v>5</v>
       </c>
       <c r="D542" s="15" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E542" s="15"/>
     </row>
@@ -14896,7 +14887,7 @@
         <v>6</v>
       </c>
       <c r="D543" s="15" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E543" s="15"/>
     </row>
@@ -14911,7 +14902,7 @@
         <v>7</v>
       </c>
       <c r="D544" s="15" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E544" s="15"/>
     </row>
@@ -14926,7 +14917,7 @@
         <v>8</v>
       </c>
       <c r="D545" s="15" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E545" s="15"/>
     </row>
@@ -14941,7 +14932,7 @@
         <v>9</v>
       </c>
       <c r="D546" s="15" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E546" s="15"/>
     </row>
@@ -14956,7 +14947,7 @@
         <v>10</v>
       </c>
       <c r="D547" s="15" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E547" s="15"/>
     </row>
@@ -14971,7 +14962,7 @@
         <v>11</v>
       </c>
       <c r="D548" s="15" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E548" s="15"/>
     </row>
@@ -14986,7 +14977,7 @@
         <v>12</v>
       </c>
       <c r="D549" s="15" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E549" s="15"/>
     </row>
@@ -15001,7 +14992,7 @@
         <v>13</v>
       </c>
       <c r="D550" s="15" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E550" s="15"/>
     </row>
@@ -15016,7 +15007,7 @@
         <v>14</v>
       </c>
       <c r="D551" s="15" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E551" s="15"/>
     </row>
@@ -15031,7 +15022,7 @@
         <v>21</v>
       </c>
       <c r="D552" s="15" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E552" s="15"/>
     </row>
@@ -15046,7 +15037,7 @@
         <v>15</v>
       </c>
       <c r="D553" s="15" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E553" s="15"/>
     </row>
@@ -15061,7 +15052,7 @@
         <v>16</v>
       </c>
       <c r="D554" s="15" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E554" s="15"/>
     </row>
@@ -15076,7 +15067,7 @@
         <v>17</v>
       </c>
       <c r="D555" s="15" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E555" s="15"/>
     </row>
@@ -15091,7 +15082,7 @@
         <v>18</v>
       </c>
       <c r="D556" s="15" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E556" s="15"/>
     </row>
@@ -15106,7 +15097,7 @@
         <v>19</v>
       </c>
       <c r="D557" s="15" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E557" s="15"/>
     </row>
@@ -15136,7 +15127,7 @@
         <v>1</v>
       </c>
       <c r="D559" s="15" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E559" s="15"/>
     </row>
@@ -15151,7 +15142,7 @@
         <v>2</v>
       </c>
       <c r="D560" s="15" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E560" s="15"/>
     </row>
@@ -15166,7 +15157,7 @@
         <v>3</v>
       </c>
       <c r="D561" s="15" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E561" s="15"/>
     </row>
@@ -15181,7 +15172,7 @@
         <v>4</v>
       </c>
       <c r="D562" s="15" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E562" s="15"/>
     </row>
@@ -15196,7 +15187,7 @@
         <v>5</v>
       </c>
       <c r="D563" s="15" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E563" s="15"/>
     </row>
@@ -15211,7 +15202,7 @@
         <v>6</v>
       </c>
       <c r="D564" s="15" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E564" s="15"/>
     </row>
@@ -15226,7 +15217,7 @@
         <v>7</v>
       </c>
       <c r="D565" s="15" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E565" s="15"/>
     </row>
@@ -15241,7 +15232,7 @@
         <v>8</v>
       </c>
       <c r="D566" s="15" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E566" s="15"/>
     </row>
@@ -15256,7 +15247,7 @@
         <v>9</v>
       </c>
       <c r="D567" s="15" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E567" s="15"/>
     </row>
@@ -15271,7 +15262,7 @@
         <v>10</v>
       </c>
       <c r="D568" s="15" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E568" s="15"/>
     </row>
@@ -15286,7 +15277,7 @@
         <v>1</v>
       </c>
       <c r="D569" s="15" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E569" s="15"/>
     </row>
@@ -15301,7 +15292,7 @@
         <v>2</v>
       </c>
       <c r="D570" s="15" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E570" s="15"/>
     </row>
@@ -15316,7 +15307,7 @@
         <v>3</v>
       </c>
       <c r="D571" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E571" s="15"/>
     </row>
@@ -15331,7 +15322,7 @@
         <v>4</v>
       </c>
       <c r="D572" s="15" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E572" s="15"/>
     </row>
@@ -15346,7 +15337,7 @@
         <v>5</v>
       </c>
       <c r="D573" s="15" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E573" s="15"/>
     </row>
@@ -15361,7 +15352,7 @@
         <v>6</v>
       </c>
       <c r="D574" s="15" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E574" s="15"/>
     </row>
@@ -15376,7 +15367,7 @@
         <v>7</v>
       </c>
       <c r="D575" s="15" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E575" s="15"/>
     </row>
@@ -15544,7 +15535,7 @@
         <v>605</v>
       </c>
       <c r="E586" s="15" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.3">
@@ -15561,7 +15552,7 @@
         <v>606</v>
       </c>
       <c r="E587" s="15" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.3">
@@ -15578,7 +15569,7 @@
         <v>607</v>
       </c>
       <c r="E588" s="15" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.3">
@@ -15730,7 +15721,7 @@
         <v>617</v>
       </c>
       <c r="E598" s="15" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="599" spans="1:7" x14ac:dyDescent="0.3">
@@ -16840,7 +16831,7 @@
         <v>1</v>
       </c>
       <c r="D672" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E672" s="15"/>
     </row>
@@ -16855,7 +16846,7 @@
         <v>2</v>
       </c>
       <c r="D673" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E673" s="15"/>
     </row>
@@ -16870,7 +16861,7 @@
         <v>3</v>
       </c>
       <c r="D674" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E674" s="15"/>
     </row>
@@ -16885,7 +16876,7 @@
         <v>4</v>
       </c>
       <c r="D675" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E675" s="15"/>
     </row>
@@ -16900,7 +16891,7 @@
         <v>5</v>
       </c>
       <c r="D676" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E676" s="15"/>
     </row>
@@ -16915,7 +16906,7 @@
         <v>6</v>
       </c>
       <c r="D677" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E677" s="15"/>
     </row>
@@ -16930,7 +16921,7 @@
         <v>7</v>
       </c>
       <c r="D678" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E678" s="15"/>
     </row>
@@ -16945,7 +16936,7 @@
         <v>8</v>
       </c>
       <c r="D679" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E679" s="15"/>
     </row>
@@ -16960,7 +16951,7 @@
         <v>9</v>
       </c>
       <c r="D680" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E680" s="15"/>
     </row>
@@ -16975,7 +16966,7 @@
         <v>10</v>
       </c>
       <c r="D681" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E681" s="15"/>
     </row>
@@ -16990,7 +16981,7 @@
         <v>11</v>
       </c>
       <c r="D682" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E682" s="15"/>
     </row>
@@ -17005,7 +16996,7 @@
         <v>12</v>
       </c>
       <c r="D683" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E683" s="15"/>
     </row>
@@ -17020,7 +17011,7 @@
         <v>13</v>
       </c>
       <c r="D684" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E684" s="15"/>
     </row>
@@ -17035,7 +17026,7 @@
         <v>14</v>
       </c>
       <c r="D685" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E685" s="15"/>
     </row>
@@ -17050,7 +17041,7 @@
         <v>15</v>
       </c>
       <c r="D686" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E686" s="15"/>
     </row>
@@ -17065,7 +17056,7 @@
         <v>16</v>
       </c>
       <c r="D687" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E687" s="15"/>
     </row>
@@ -17080,7 +17071,7 @@
         <v>22</v>
       </c>
       <c r="D688" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E688" s="15"/>
     </row>
@@ -17095,7 +17086,7 @@
         <v>24</v>
       </c>
       <c r="D689" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E689" s="15"/>
     </row>
@@ -17110,7 +17101,7 @@
         <v>28</v>
       </c>
       <c r="D690" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E690" s="15"/>
     </row>
@@ -17140,7 +17131,7 @@
         <v>1</v>
       </c>
       <c r="D692" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E692" s="15"/>
     </row>
@@ -17155,7 +17146,7 @@
         <v>2</v>
       </c>
       <c r="D693" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E693" s="15"/>
     </row>
@@ -17170,7 +17161,7 @@
         <v>3</v>
       </c>
       <c r="D694" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E694" s="15"/>
     </row>
@@ -17185,7 +17176,7 @@
         <v>4</v>
       </c>
       <c r="D695" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E695" s="15"/>
       <c r="G695" s="26"/>
@@ -17201,7 +17192,7 @@
         <v>5</v>
       </c>
       <c r="D696" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E696" s="15"/>
       <c r="G696" s="10"/>
@@ -17217,7 +17208,7 @@
         <v>6</v>
       </c>
       <c r="D697" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E697" s="15"/>
     </row>
@@ -17232,7 +17223,7 @@
         <v>7</v>
       </c>
       <c r="D698" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E698" s="15"/>
     </row>
@@ -17247,7 +17238,7 @@
         <v>8</v>
       </c>
       <c r="D699" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E699" s="15"/>
       <c r="H699" t="s">
@@ -17265,7 +17256,7 @@
         <v>9</v>
       </c>
       <c r="D700" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E700" s="15"/>
     </row>
@@ -17280,7 +17271,7 @@
         <v>10</v>
       </c>
       <c r="D701" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E701" s="15"/>
     </row>
@@ -17295,7 +17286,7 @@
         <v>11</v>
       </c>
       <c r="D702" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E702" s="15"/>
     </row>
@@ -17310,7 +17301,7 @@
         <v>12</v>
       </c>
       <c r="D703" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E703" s="15"/>
     </row>
@@ -17325,7 +17316,7 @@
         <v>13</v>
       </c>
       <c r="D704" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E704" s="15"/>
     </row>
@@ -17340,7 +17331,7 @@
         <v>14</v>
       </c>
       <c r="D705" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E705" s="15"/>
     </row>
@@ -17355,10 +17346,10 @@
         <v>15</v>
       </c>
       <c r="D706" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E706" s="15" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="707" spans="1:5" x14ac:dyDescent="0.3">
@@ -17372,7 +17363,7 @@
         <v>16</v>
       </c>
       <c r="D707" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E707" s="15"/>
     </row>
@@ -17387,7 +17378,7 @@
         <v>22</v>
       </c>
       <c r="D708" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E708" s="15"/>
     </row>
@@ -17402,7 +17393,7 @@
         <v>24</v>
       </c>
       <c r="D709" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E709" s="15"/>
     </row>
@@ -17417,7 +17408,7 @@
         <v>28</v>
       </c>
       <c r="D710" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E710" s="15"/>
     </row>
@@ -17447,7 +17438,7 @@
         <v>1</v>
       </c>
       <c r="D712" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E712" s="15"/>
     </row>
@@ -17462,7 +17453,7 @@
         <v>2</v>
       </c>
       <c r="D713" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E713" s="15"/>
     </row>
@@ -17477,7 +17468,7 @@
         <v>3</v>
       </c>
       <c r="D714" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E714" s="15"/>
     </row>
@@ -17492,7 +17483,7 @@
         <v>4</v>
       </c>
       <c r="D715" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E715" s="16"/>
     </row>
@@ -17507,7 +17498,7 @@
         <v>5</v>
       </c>
       <c r="D716" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E716" s="16"/>
     </row>
@@ -17522,7 +17513,7 @@
         <v>6</v>
       </c>
       <c r="D717" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E717" s="15"/>
     </row>
@@ -17537,7 +17528,7 @@
         <v>7</v>
       </c>
       <c r="D718" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E718" s="15"/>
     </row>
@@ -17552,7 +17543,7 @@
         <v>8</v>
       </c>
       <c r="D719" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E719" s="16"/>
     </row>
@@ -17567,7 +17558,7 @@
         <v>9</v>
       </c>
       <c r="D720" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E720" s="16"/>
     </row>
@@ -17582,7 +17573,7 @@
         <v>10</v>
       </c>
       <c r="D721" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E721" s="15"/>
     </row>
@@ -17597,7 +17588,7 @@
         <v>11</v>
       </c>
       <c r="D722" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E722" s="15"/>
     </row>
@@ -17612,7 +17603,7 @@
         <v>12</v>
       </c>
       <c r="D723" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E723" s="15"/>
     </row>
@@ -17627,7 +17618,7 @@
         <v>13</v>
       </c>
       <c r="D724" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E724" s="15"/>
     </row>
@@ -17642,10 +17633,10 @@
         <v>14</v>
       </c>
       <c r="D725" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E725" s="15" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="726" spans="1:5" x14ac:dyDescent="0.3">
@@ -17659,10 +17650,10 @@
         <v>15</v>
       </c>
       <c r="D726" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E726" s="15" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="727" spans="1:5" x14ac:dyDescent="0.3">
@@ -17676,7 +17667,7 @@
         <v>16</v>
       </c>
       <c r="D727" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E727" s="15"/>
     </row>
@@ -17691,7 +17682,7 @@
         <v>22</v>
       </c>
       <c r="D728" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E728" s="15"/>
     </row>
@@ -17706,7 +17697,7 @@
         <v>24</v>
       </c>
       <c r="D729" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E729" s="15"/>
     </row>
@@ -17721,7 +17712,7 @@
         <v>28</v>
       </c>
       <c r="D730" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E730" s="15"/>
     </row>
@@ -17751,7 +17742,7 @@
         <v>1</v>
       </c>
       <c r="D732" s="15" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E732" s="15"/>
     </row>
@@ -17766,7 +17757,7 @@
         <v>2</v>
       </c>
       <c r="D733" s="15" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E733" s="15"/>
     </row>
@@ -17781,7 +17772,7 @@
         <v>3</v>
       </c>
       <c r="D734" s="15" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E734" s="15"/>
     </row>
@@ -17796,10 +17787,10 @@
         <v>4</v>
       </c>
       <c r="D735" s="15" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E735" s="15" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="736" spans="1:5" x14ac:dyDescent="0.3">
@@ -17813,10 +17804,10 @@
         <v>5</v>
       </c>
       <c r="D736" s="15" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E736" s="15" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="737" spans="1:7" x14ac:dyDescent="0.3">
@@ -17830,7 +17821,7 @@
         <v>6</v>
       </c>
       <c r="D737" s="15" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E737" s="15"/>
     </row>
@@ -17890,7 +17881,7 @@
         <v>1</v>
       </c>
       <c r="D741" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E741" s="15"/>
     </row>
@@ -17905,7 +17896,7 @@
         <v>2</v>
       </c>
       <c r="D742" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E742" s="15"/>
     </row>
@@ -17920,7 +17911,7 @@
         <v>3</v>
       </c>
       <c r="D743" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E743" s="15"/>
     </row>
@@ -17935,7 +17926,7 @@
         <v>4</v>
       </c>
       <c r="D744" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E744" s="15"/>
     </row>
@@ -17950,7 +17941,7 @@
         <v>5</v>
       </c>
       <c r="D745" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E745" s="15"/>
     </row>
@@ -17965,7 +17956,7 @@
         <v>6</v>
       </c>
       <c r="D746" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E746" s="15"/>
     </row>
@@ -17980,7 +17971,7 @@
         <v>7</v>
       </c>
       <c r="D747" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E747" s="15"/>
     </row>
@@ -17995,7 +17986,7 @@
         <v>8</v>
       </c>
       <c r="D748" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E748" s="15"/>
     </row>
@@ -18010,7 +18001,7 @@
         <v>9</v>
       </c>
       <c r="D749" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E749" s="15"/>
     </row>
@@ -18025,7 +18016,7 @@
         <v>10</v>
       </c>
       <c r="D750" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E750" s="15"/>
       <c r="G750" s="26"/>
@@ -18041,7 +18032,7 @@
         <v>11</v>
       </c>
       <c r="D751" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E751" s="15"/>
     </row>
@@ -18056,7 +18047,7 @@
         <v>12</v>
       </c>
       <c r="D752" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E752" s="15"/>
     </row>
@@ -18071,7 +18062,7 @@
         <v>13</v>
       </c>
       <c r="D753" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E753" s="15"/>
     </row>
@@ -18086,7 +18077,7 @@
         <v>14</v>
       </c>
       <c r="D754" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E754" s="15"/>
     </row>
@@ -18101,7 +18092,7 @@
         <v>15</v>
       </c>
       <c r="D755" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E755" s="15"/>
     </row>
@@ -18116,7 +18107,7 @@
         <v>16</v>
       </c>
       <c r="D756" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E756" s="15"/>
     </row>
@@ -18131,7 +18122,7 @@
         <v>22</v>
       </c>
       <c r="D757" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E757" s="15"/>
     </row>
@@ -18146,7 +18137,7 @@
         <v>23</v>
       </c>
       <c r="D758" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E758" s="15"/>
     </row>
@@ -18161,7 +18152,7 @@
         <v>24</v>
       </c>
       <c r="D759" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E759" s="15"/>
     </row>
@@ -18176,7 +18167,7 @@
         <v>25</v>
       </c>
       <c r="D760" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E760" s="15"/>
     </row>
@@ -18191,7 +18182,7 @@
         <v>26</v>
       </c>
       <c r="D761" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E761" s="15"/>
     </row>
@@ -18206,7 +18197,7 @@
         <v>27</v>
       </c>
       <c r="D762" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E762" s="15"/>
     </row>
@@ -18221,7 +18212,7 @@
         <v>28</v>
       </c>
       <c r="D763" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E763" s="15"/>
     </row>
@@ -18299,7 +18290,7 @@
         <v>596</v>
       </c>
       <c r="E768" s="15" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="769" spans="1:5" x14ac:dyDescent="0.3">
@@ -19693,7 +19684,7 @@
         <v>1</v>
       </c>
       <c r="D861" s="15" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E861" s="10"/>
     </row>
@@ -19708,7 +19699,7 @@
         <v>2</v>
       </c>
       <c r="D862" s="15" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E862" s="10"/>
     </row>
@@ -19723,7 +19714,7 @@
         <v>3</v>
       </c>
       <c r="D863" s="15" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E863" s="10"/>
     </row>
@@ -19738,7 +19729,7 @@
         <v>4</v>
       </c>
       <c r="D864" s="15" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E864" s="10"/>
     </row>
@@ -19753,7 +19744,7 @@
         <v>5</v>
       </c>
       <c r="D865" s="15" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E865" s="10"/>
     </row>
@@ -19768,7 +19759,7 @@
         <v>6</v>
       </c>
       <c r="D866" s="15" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E866" s="10"/>
     </row>
@@ -19798,7 +19789,7 @@
         <v>1</v>
       </c>
       <c r="D868" s="15" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E868" s="10"/>
     </row>
@@ -19813,7 +19804,7 @@
         <v>2</v>
       </c>
       <c r="D869" s="15" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E869" s="10"/>
     </row>
@@ -19828,7 +19819,7 @@
         <v>3</v>
       </c>
       <c r="D870" s="15" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E870" s="10"/>
     </row>
@@ -19843,7 +19834,7 @@
         <v>4</v>
       </c>
       <c r="D871" s="15" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E871" s="10"/>
     </row>
@@ -19858,7 +19849,7 @@
         <v>5</v>
       </c>
       <c r="D872" s="15" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E872" s="10"/>
     </row>
@@ -19888,7 +19879,7 @@
         <v>1</v>
       </c>
       <c r="D874" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E874" s="10"/>
     </row>
@@ -19903,7 +19894,7 @@
         <v>2</v>
       </c>
       <c r="D875" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E875" s="10"/>
     </row>
@@ -19918,7 +19909,7 @@
         <v>3</v>
       </c>
       <c r="D876" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E876" s="10"/>
     </row>
@@ -19933,7 +19924,7 @@
         <v>4</v>
       </c>
       <c r="D877" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E877" s="10"/>
     </row>
@@ -19948,7 +19939,7 @@
         <v>5</v>
       </c>
       <c r="D878" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E878" s="10"/>
     </row>
@@ -19963,7 +19954,7 @@
         <v>6</v>
       </c>
       <c r="D879" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E879" s="10"/>
     </row>
@@ -19978,7 +19969,7 @@
         <v>7</v>
       </c>
       <c r="D880" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E880" s="10"/>
     </row>
@@ -19993,7 +19984,7 @@
         <v>8</v>
       </c>
       <c r="D881" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E881" s="10"/>
     </row>
@@ -20008,7 +19999,7 @@
         <v>9</v>
       </c>
       <c r="D882" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E882" s="10"/>
     </row>
@@ -20023,7 +20014,7 @@
         <v>10</v>
       </c>
       <c r="D883" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E883" s="10"/>
     </row>
@@ -20038,7 +20029,7 @@
         <v>11</v>
       </c>
       <c r="D884" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E884" s="10"/>
     </row>
@@ -20053,7 +20044,7 @@
         <v>12</v>
       </c>
       <c r="D885" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E885" s="10"/>
     </row>
@@ -20068,7 +20059,7 @@
         <v>13</v>
       </c>
       <c r="D886" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E886" s="10"/>
     </row>
@@ -20083,7 +20074,7 @@
         <v>14</v>
       </c>
       <c r="D887" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E887" s="10"/>
     </row>
@@ -20098,7 +20089,7 @@
         <v>22</v>
       </c>
       <c r="D888" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E888" s="10"/>
     </row>
@@ -20113,7 +20104,7 @@
         <v>28</v>
       </c>
       <c r="D889" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E889" s="10"/>
     </row>
@@ -20143,7 +20134,7 @@
         <v>1</v>
       </c>
       <c r="D891" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E891" s="10"/>
     </row>
@@ -20158,7 +20149,7 @@
         <v>2</v>
       </c>
       <c r="D892" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E892" s="10"/>
     </row>
@@ -20173,7 +20164,7 @@
         <v>3</v>
       </c>
       <c r="D893" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E893" s="10"/>
     </row>
@@ -20188,7 +20179,7 @@
         <v>4</v>
       </c>
       <c r="D894" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E894" s="10"/>
     </row>
@@ -20203,7 +20194,7 @@
         <v>5</v>
       </c>
       <c r="D895" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E895" s="10"/>
     </row>
@@ -20218,7 +20209,7 @@
         <v>6</v>
       </c>
       <c r="D896" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E896" s="10"/>
     </row>
@@ -20233,7 +20224,7 @@
         <v>7</v>
       </c>
       <c r="D897" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E897" s="10"/>
     </row>
@@ -20248,7 +20239,7 @@
         <v>8</v>
       </c>
       <c r="D898" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E898" s="10"/>
     </row>
@@ -20263,7 +20254,7 @@
         <v>9</v>
       </c>
       <c r="D899" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E899" s="10"/>
     </row>
@@ -20278,7 +20269,7 @@
         <v>10</v>
       </c>
       <c r="D900" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E900" s="10"/>
     </row>
@@ -20293,7 +20284,7 @@
         <v>11</v>
       </c>
       <c r="D901" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E901" s="10"/>
     </row>
@@ -20308,7 +20299,7 @@
         <v>12</v>
       </c>
       <c r="D902" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E902" s="10"/>
     </row>
@@ -20323,7 +20314,7 @@
         <v>13</v>
       </c>
       <c r="D903" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E903" s="10"/>
     </row>
@@ -20338,7 +20329,7 @@
         <v>14</v>
       </c>
       <c r="D904" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E904" s="10"/>
     </row>
@@ -20353,7 +20344,7 @@
         <v>22</v>
       </c>
       <c r="D905" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E905" s="10"/>
     </row>
@@ -20368,7 +20359,7 @@
         <v>28</v>
       </c>
       <c r="D906" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E906" s="10"/>
     </row>
@@ -20443,7 +20434,7 @@
         <v>1</v>
       </c>
       <c r="D911" s="15" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E911" s="10"/>
     </row>
@@ -20458,7 +20449,7 @@
         <v>2</v>
       </c>
       <c r="D912" s="15" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E912" s="10"/>
     </row>
@@ -20473,7 +20464,7 @@
         <v>3</v>
       </c>
       <c r="D913" s="15" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E913" s="10"/>
     </row>
@@ -20488,7 +20479,7 @@
         <v>4</v>
       </c>
       <c r="D914" s="15" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E914" s="10"/>
     </row>
@@ -20518,7 +20509,7 @@
         <v>1</v>
       </c>
       <c r="D916" s="16" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E916" s="10"/>
     </row>
@@ -20533,7 +20524,7 @@
         <v>2</v>
       </c>
       <c r="D917" s="16" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E917" s="10"/>
     </row>
@@ -20548,7 +20539,7 @@
         <v>3</v>
       </c>
       <c r="D918" s="15" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E918" s="10"/>
     </row>
@@ -20563,7 +20554,7 @@
         <v>4</v>
       </c>
       <c r="D919" s="15" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E919" s="10"/>
     </row>
@@ -20578,7 +20569,7 @@
         <v>1</v>
       </c>
       <c r="D920" s="16" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E920" s="10"/>
     </row>
@@ -20593,7 +20584,7 @@
         <v>2</v>
       </c>
       <c r="D921" s="16" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E921" s="10"/>
     </row>
@@ -20608,7 +20599,7 @@
         <v>3</v>
       </c>
       <c r="D922" s="15" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E922" s="10"/>
     </row>
@@ -20623,7 +20614,7 @@
         <v>4</v>
       </c>
       <c r="D923" s="15" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E923" s="10"/>
     </row>
@@ -20638,7 +20629,7 @@
         <v>5</v>
       </c>
       <c r="D924" s="15" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E924" s="10"/>
     </row>
@@ -20653,7 +20644,7 @@
         <v>6</v>
       </c>
       <c r="D925" s="15" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E925" s="10"/>
     </row>
@@ -20668,7 +20659,7 @@
         <v>1</v>
       </c>
       <c r="D926" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E926" s="10"/>
     </row>
@@ -20683,7 +20674,7 @@
         <v>2</v>
       </c>
       <c r="D927" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E927" s="10"/>
     </row>
@@ -20698,7 +20689,7 @@
         <v>3</v>
       </c>
       <c r="D928" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E928" s="10"/>
     </row>
@@ -20713,7 +20704,7 @@
         <v>4</v>
       </c>
       <c r="D929" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E929" s="10"/>
     </row>
@@ -20728,7 +20719,7 @@
         <v>5</v>
       </c>
       <c r="D930" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E930" s="10"/>
     </row>
@@ -20743,7 +20734,7 @@
         <v>6</v>
       </c>
       <c r="D931" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E931" s="10"/>
     </row>
@@ -20758,7 +20749,7 @@
         <v>7</v>
       </c>
       <c r="D932" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E932" s="10"/>
     </row>
@@ -20773,7 +20764,7 @@
         <v>8</v>
       </c>
       <c r="D933" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E933" s="10"/>
     </row>
@@ -20788,7 +20779,7 @@
         <v>9</v>
       </c>
       <c r="D934" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E934" s="10"/>
     </row>
@@ -20803,7 +20794,7 @@
         <v>10</v>
       </c>
       <c r="D935" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="936" spans="1:5" x14ac:dyDescent="0.3">
@@ -20817,7 +20808,7 @@
         <v>11</v>
       </c>
       <c r="D936" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="937" spans="1:5" x14ac:dyDescent="0.3">
@@ -20831,7 +20822,7 @@
         <v>12</v>
       </c>
       <c r="D937" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="938" spans="1:5" x14ac:dyDescent="0.3">
@@ -20845,7 +20836,7 @@
         <v>13</v>
       </c>
       <c r="D938" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="939" spans="1:5" x14ac:dyDescent="0.3">
@@ -20859,7 +20850,7 @@
         <v>14</v>
       </c>
       <c r="D939" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="940" spans="1:5" x14ac:dyDescent="0.3">
@@ -20873,7 +20864,7 @@
         <v>22</v>
       </c>
       <c r="D940" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="941" spans="1:5" x14ac:dyDescent="0.3">
@@ -20887,7 +20878,7 @@
         <v>28</v>
       </c>
       <c r="D941" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="942" spans="1:5" x14ac:dyDescent="0.3">
@@ -20915,7 +20906,7 @@
         <v>1</v>
       </c>
       <c r="D943" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="944" spans="1:5" x14ac:dyDescent="0.3">
@@ -20929,7 +20920,7 @@
         <v>2</v>
       </c>
       <c r="D944" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="945" spans="1:4" x14ac:dyDescent="0.3">
@@ -20943,7 +20934,7 @@
         <v>3</v>
       </c>
       <c r="D945" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="946" spans="1:4" x14ac:dyDescent="0.3">
@@ -20957,7 +20948,7 @@
         <v>4</v>
       </c>
       <c r="D946" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="947" spans="1:4" x14ac:dyDescent="0.3">
@@ -20971,7 +20962,7 @@
         <v>5</v>
       </c>
       <c r="D947" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="948" spans="1:4" x14ac:dyDescent="0.3">
@@ -20985,7 +20976,7 @@
         <v>6</v>
       </c>
       <c r="D948" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="949" spans="1:4" x14ac:dyDescent="0.3">
@@ -20999,7 +20990,7 @@
         <v>7</v>
       </c>
       <c r="D949" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="950" spans="1:4" x14ac:dyDescent="0.3">
@@ -21013,7 +21004,7 @@
         <v>8</v>
       </c>
       <c r="D950" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="951" spans="1:4" x14ac:dyDescent="0.3">
@@ -21027,7 +21018,7 @@
         <v>9</v>
       </c>
       <c r="D951" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="952" spans="1:4" x14ac:dyDescent="0.3">
@@ -21041,7 +21032,7 @@
         <v>10</v>
       </c>
       <c r="D952" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="953" spans="1:4" x14ac:dyDescent="0.3">
@@ -21055,7 +21046,7 @@
         <v>11</v>
       </c>
       <c r="D953" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="954" spans="1:4" x14ac:dyDescent="0.3">
@@ -21069,7 +21060,7 @@
         <v>12</v>
       </c>
       <c r="D954" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="955" spans="1:4" x14ac:dyDescent="0.3">
@@ -21083,7 +21074,7 @@
         <v>13</v>
       </c>
       <c r="D955" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="956" spans="1:4" x14ac:dyDescent="0.3">
@@ -21097,7 +21088,7 @@
         <v>14</v>
       </c>
       <c r="D956" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="957" spans="1:4" x14ac:dyDescent="0.3">
@@ -21111,7 +21102,7 @@
         <v>15</v>
       </c>
       <c r="D957" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="958" spans="1:4" x14ac:dyDescent="0.3">
@@ -21125,7 +21116,7 @@
         <v>16</v>
       </c>
       <c r="D958" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="959" spans="1:4" x14ac:dyDescent="0.3">
@@ -21139,7 +21130,7 @@
         <v>22</v>
       </c>
       <c r="D959" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="960" spans="1:4" x14ac:dyDescent="0.3">
@@ -21153,7 +21144,7 @@
         <v>23</v>
       </c>
       <c r="D960" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="961" spans="1:4" x14ac:dyDescent="0.3">
@@ -21167,7 +21158,7 @@
         <v>24</v>
       </c>
       <c r="D961" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="962" spans="1:4" x14ac:dyDescent="0.3">
@@ -21181,7 +21172,7 @@
         <v>25</v>
       </c>
       <c r="D962" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="963" spans="1:4" x14ac:dyDescent="0.3">
@@ -21195,7 +21186,7 @@
         <v>26</v>
       </c>
       <c r="D963" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="964" spans="1:4" x14ac:dyDescent="0.3">
@@ -21209,7 +21200,7 @@
         <v>27</v>
       </c>
       <c r="D964" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="965" spans="1:4" x14ac:dyDescent="0.3">
@@ -21223,7 +21214,7 @@
         <v>28</v>
       </c>
       <c r="D965" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="966" spans="1:4" x14ac:dyDescent="0.3">
@@ -21251,7 +21242,7 @@
         <v>1</v>
       </c>
       <c r="D967" s="15" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="968" spans="1:4" x14ac:dyDescent="0.3">
@@ -21265,7 +21256,7 @@
         <v>2</v>
       </c>
       <c r="D968" s="15" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="969" spans="1:4" x14ac:dyDescent="0.3">
@@ -21279,7 +21270,7 @@
         <v>3</v>
       </c>
       <c r="D969" s="15" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="970" spans="1:4" x14ac:dyDescent="0.3">
@@ -21293,7 +21284,7 @@
         <v>4</v>
       </c>
       <c r="D970" s="15" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="971" spans="1:4" x14ac:dyDescent="0.3">
@@ -21307,7 +21298,7 @@
         <v>5</v>
       </c>
       <c r="D971" s="15" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="972" spans="1:4" x14ac:dyDescent="0.3">
@@ -21321,7 +21312,7 @@
         <v>6</v>
       </c>
       <c r="D972" s="15" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="973" spans="1:4" x14ac:dyDescent="0.3">
@@ -21335,7 +21326,7 @@
         <v>7</v>
       </c>
       <c r="D973" s="15" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="974" spans="1:4" x14ac:dyDescent="0.3">
@@ -21349,7 +21340,7 @@
         <v>8</v>
       </c>
       <c r="D974" s="15" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="975" spans="1:4" x14ac:dyDescent="0.3">
@@ -21377,7 +21368,7 @@
         <v>1</v>
       </c>
       <c r="D976" s="10" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="977" spans="1:4" x14ac:dyDescent="0.3">
@@ -21391,7 +21382,7 @@
         <v>2</v>
       </c>
       <c r="D977" s="10" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="978" spans="1:4" x14ac:dyDescent="0.3">
@@ -21405,7 +21396,7 @@
         <v>3</v>
       </c>
       <c r="D978" s="10" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="979" spans="1:4" x14ac:dyDescent="0.3">
@@ -21419,7 +21410,7 @@
         <v>4</v>
       </c>
       <c r="D979" s="10" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="980" spans="1:4" x14ac:dyDescent="0.3">
@@ -21433,7 +21424,7 @@
         <v>5</v>
       </c>
       <c r="D980" s="10" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="981" spans="1:4" x14ac:dyDescent="0.3">
@@ -21447,7 +21438,7 @@
         <v>6</v>
       </c>
       <c r="D981" s="10" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="982" spans="1:4" x14ac:dyDescent="0.3">
@@ -21461,7 +21452,7 @@
         <v>7</v>
       </c>
       <c r="D982" s="10" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="983" spans="1:4" x14ac:dyDescent="0.3">
@@ -21475,7 +21466,7 @@
         <v>8</v>
       </c>
       <c r="D983" s="10" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="984" spans="1:4" x14ac:dyDescent="0.3">
@@ -21489,7 +21480,7 @@
         <v>9</v>
       </c>
       <c r="D984" s="10" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="985" spans="1:4" x14ac:dyDescent="0.3">
@@ -21503,7 +21494,7 @@
         <v>10</v>
       </c>
       <c r="D985" s="10" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="986" spans="1:4" x14ac:dyDescent="0.3">
@@ -21517,7 +21508,7 @@
         <v>11</v>
       </c>
       <c r="D986" s="10" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="987" spans="1:4" x14ac:dyDescent="0.3">
@@ -21531,7 +21522,7 @@
         <v>12</v>
       </c>
       <c r="D987" s="10" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="988" spans="1:4" x14ac:dyDescent="0.3">
@@ -21545,7 +21536,7 @@
         <v>13</v>
       </c>
       <c r="D988" s="10" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="989" spans="1:4" x14ac:dyDescent="0.3">
@@ -21559,7 +21550,7 @@
         <v>14</v>
       </c>
       <c r="D989" s="10" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="990" spans="1:4" x14ac:dyDescent="0.3">
@@ -21573,7 +21564,7 @@
         <v>15</v>
       </c>
       <c r="D990" s="10" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="991" spans="1:4" x14ac:dyDescent="0.3">
@@ -21587,7 +21578,7 @@
         <v>16</v>
       </c>
       <c r="D991" s="10" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="992" spans="1:4" x14ac:dyDescent="0.3">
@@ -21601,7 +21592,7 @@
         <v>22</v>
       </c>
       <c r="D992" s="10" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="993" spans="1:4" x14ac:dyDescent="0.3">
@@ -21615,7 +21606,7 @@
         <v>23</v>
       </c>
       <c r="D993" s="10" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="994" spans="1:4" x14ac:dyDescent="0.3">
@@ -21629,7 +21620,7 @@
         <v>24</v>
       </c>
       <c r="D994" s="10" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="995" spans="1:4" x14ac:dyDescent="0.3">
@@ -21643,7 +21634,7 @@
         <v>25</v>
       </c>
       <c r="D995" s="10" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="996" spans="1:4" x14ac:dyDescent="0.3">
@@ -21657,7 +21648,7 @@
         <v>26</v>
       </c>
       <c r="D996" s="10" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="997" spans="1:4" x14ac:dyDescent="0.3">
@@ -21671,7 +21662,7 @@
         <v>27</v>
       </c>
       <c r="D997" s="10" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="998" spans="1:4" x14ac:dyDescent="0.3">
@@ -21685,7 +21676,7 @@
         <v>28</v>
       </c>
       <c r="D998" s="10" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="999" spans="1:4" x14ac:dyDescent="0.3">
@@ -21713,7 +21704,7 @@
         <v>1</v>
       </c>
       <c r="D1000" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="1001" spans="1:4" x14ac:dyDescent="0.3">
@@ -21727,7 +21718,7 @@
         <v>2</v>
       </c>
       <c r="D1001" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="1002" spans="1:4" x14ac:dyDescent="0.3">
@@ -21741,7 +21732,7 @@
         <v>3</v>
       </c>
       <c r="D1002" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="1003" spans="1:4" x14ac:dyDescent="0.3">
@@ -21755,7 +21746,7 @@
         <v>4</v>
       </c>
       <c r="D1003" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="1004" spans="1:4" x14ac:dyDescent="0.3">
@@ -21769,7 +21760,7 @@
         <v>5</v>
       </c>
       <c r="D1004" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="1005" spans="1:4" x14ac:dyDescent="0.3">
@@ -21783,7 +21774,7 @@
         <v>6</v>
       </c>
       <c r="D1005" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="1006" spans="1:4" x14ac:dyDescent="0.3">
@@ -21797,7 +21788,7 @@
         <v>7</v>
       </c>
       <c r="D1006" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="1007" spans="1:4" x14ac:dyDescent="0.3">
@@ -21811,7 +21802,7 @@
         <v>8</v>
       </c>
       <c r="D1007" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="1008" spans="1:4" x14ac:dyDescent="0.3">
@@ -21825,7 +21816,7 @@
         <v>9</v>
       </c>
       <c r="D1008" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="1009" spans="1:4" x14ac:dyDescent="0.3">
@@ -21839,7 +21830,7 @@
         <v>10</v>
       </c>
       <c r="D1009" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="1010" spans="1:4" x14ac:dyDescent="0.3">
@@ -21853,7 +21844,7 @@
         <v>11</v>
       </c>
       <c r="D1010" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="1011" spans="1:4" x14ac:dyDescent="0.3">
@@ -21867,7 +21858,7 @@
         <v>12</v>
       </c>
       <c r="D1011" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="1012" spans="1:4" x14ac:dyDescent="0.3">
@@ -21881,7 +21872,7 @@
         <v>13</v>
       </c>
       <c r="D1012" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="1013" spans="1:4" x14ac:dyDescent="0.3">
@@ -21895,7 +21886,7 @@
         <v>14</v>
       </c>
       <c r="D1013" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="1014" spans="1:4" x14ac:dyDescent="0.3">
@@ -21909,7 +21900,7 @@
         <v>15</v>
       </c>
       <c r="D1014" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="1015" spans="1:4" x14ac:dyDescent="0.3">
@@ -21923,7 +21914,7 @@
         <v>16</v>
       </c>
       <c r="D1015" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="1016" spans="1:4" x14ac:dyDescent="0.3">
@@ -21937,7 +21928,7 @@
         <v>22</v>
       </c>
       <c r="D1016" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="1017" spans="1:4" x14ac:dyDescent="0.3">
@@ -21951,7 +21942,7 @@
         <v>23</v>
       </c>
       <c r="D1017" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="1018" spans="1:4" x14ac:dyDescent="0.3">
@@ -21965,7 +21956,7 @@
         <v>24</v>
       </c>
       <c r="D1018" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="1019" spans="1:4" x14ac:dyDescent="0.3">
@@ -21979,7 +21970,7 @@
         <v>25</v>
       </c>
       <c r="D1019" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="1020" spans="1:4" x14ac:dyDescent="0.3">
@@ -21993,7 +21984,7 @@
         <v>26</v>
       </c>
       <c r="D1020" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="1021" spans="1:4" x14ac:dyDescent="0.3">
@@ -22007,7 +21998,7 @@
         <v>27</v>
       </c>
       <c r="D1021" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="1022" spans="1:4" x14ac:dyDescent="0.3">
@@ -22021,7 +22012,7 @@
         <v>28</v>
       </c>
       <c r="D1022" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="1023" spans="1:4" x14ac:dyDescent="0.3">
@@ -22077,7 +22068,7 @@
         <v>1</v>
       </c>
       <c r="D1026" s="15" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="1027" spans="1:4" x14ac:dyDescent="0.3">
@@ -22091,7 +22082,7 @@
         <v>2</v>
       </c>
       <c r="D1027" s="15" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="1028" spans="1:4" x14ac:dyDescent="0.3">
@@ -22105,7 +22096,7 @@
         <v>3</v>
       </c>
       <c r="D1028" s="15" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="1029" spans="1:4" x14ac:dyDescent="0.3">
@@ -22119,7 +22110,7 @@
         <v>4</v>
       </c>
       <c r="D1029" s="15" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="1030" spans="1:4" x14ac:dyDescent="0.3">
@@ -22133,7 +22124,7 @@
         <v>5</v>
       </c>
       <c r="D1030" s="15" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="1031" spans="1:4" x14ac:dyDescent="0.3">
@@ -22147,7 +22138,7 @@
         <v>6</v>
       </c>
       <c r="D1031" s="15" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="1032" spans="1:4" x14ac:dyDescent="0.3">
@@ -22161,7 +22152,7 @@
         <v>7</v>
       </c>
       <c r="D1032" s="15" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="1033" spans="1:4" x14ac:dyDescent="0.3">
@@ -22175,7 +22166,7 @@
         <v>8</v>
       </c>
       <c r="D1033" s="15" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="1034" spans="1:4" x14ac:dyDescent="0.3">
@@ -22189,7 +22180,7 @@
         <v>9</v>
       </c>
       <c r="D1034" s="15" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="1035" spans="1:4" x14ac:dyDescent="0.3">
@@ -22203,7 +22194,7 @@
         <v>10</v>
       </c>
       <c r="D1035" s="15" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="1036" spans="1:4" x14ac:dyDescent="0.3">
@@ -22217,7 +22208,7 @@
         <v>11</v>
       </c>
       <c r="D1036" s="15" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="1037" spans="1:4" x14ac:dyDescent="0.3">
@@ -22231,7 +22222,7 @@
         <v>12</v>
       </c>
       <c r="D1037" s="15" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="1038" spans="1:4" x14ac:dyDescent="0.3">
@@ -22259,7 +22250,7 @@
         <v>1</v>
       </c>
       <c r="D1039" s="15" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="1040" spans="1:4" x14ac:dyDescent="0.3">
@@ -22273,7 +22264,7 @@
         <v>1</v>
       </c>
       <c r="D1040" s="15" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="1041" spans="1:4" x14ac:dyDescent="0.3">
@@ -22287,7 +22278,7 @@
         <v>2</v>
       </c>
       <c r="D1041" s="15" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="1042" spans="1:4" x14ac:dyDescent="0.3">
@@ -22301,7 +22292,7 @@
         <v>3</v>
       </c>
       <c r="D1042" s="15" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="1043" spans="1:4" x14ac:dyDescent="0.3">
@@ -22315,7 +22306,7 @@
         <v>4</v>
       </c>
       <c r="D1043" s="15" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="1044" spans="1:4" x14ac:dyDescent="0.3">
@@ -22329,7 +22320,7 @@
         <v>5</v>
       </c>
       <c r="D1044" s="15" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="1045" spans="1:4" x14ac:dyDescent="0.3">
@@ -22343,7 +22334,7 @@
         <v>6</v>
       </c>
       <c r="D1045" s="15" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="1046" spans="1:4" x14ac:dyDescent="0.3">
@@ -22357,7 +22348,7 @@
         <v>7</v>
       </c>
       <c r="D1046" s="15" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="1047" spans="1:4" x14ac:dyDescent="0.3">
@@ -22371,7 +22362,7 @@
         <v>1</v>
       </c>
       <c r="D1047" s="15" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="1048" spans="1:4" x14ac:dyDescent="0.3">
@@ -22385,7 +22376,7 @@
         <v>2</v>
       </c>
       <c r="D1048" s="15" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="1049" spans="1:4" x14ac:dyDescent="0.3">
@@ -22399,7 +22390,7 @@
         <v>3</v>
       </c>
       <c r="D1049" s="15" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="1050" spans="1:4" x14ac:dyDescent="0.3">
@@ -22413,7 +22404,7 @@
         <v>4</v>
       </c>
       <c r="D1050" s="15" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="1051" spans="1:4" x14ac:dyDescent="0.3">
@@ -22427,7 +22418,7 @@
         <v>5</v>
       </c>
       <c r="D1051" s="15" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="1052" spans="1:4" x14ac:dyDescent="0.3">
@@ -22441,7 +22432,7 @@
         <v>6</v>
       </c>
       <c r="D1052" s="15" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="1053" spans="1:4" x14ac:dyDescent="0.3">
@@ -22455,7 +22446,7 @@
         <v>7</v>
       </c>
       <c r="D1053" s="15" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="1054" spans="1:4" x14ac:dyDescent="0.3">
@@ -22469,7 +22460,7 @@
         <v>8</v>
       </c>
       <c r="D1054" s="15" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="1055" spans="1:4" x14ac:dyDescent="0.3">
@@ -22483,7 +22474,7 @@
         <v>1</v>
       </c>
       <c r="D1055" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="1056" spans="1:4" x14ac:dyDescent="0.3">
@@ -22497,7 +22488,7 @@
         <v>2</v>
       </c>
       <c r="D1056" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="1057" spans="1:4" x14ac:dyDescent="0.3">
@@ -22511,7 +22502,7 @@
         <v>3</v>
       </c>
       <c r="D1057" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="1058" spans="1:4" x14ac:dyDescent="0.3">
@@ -22525,7 +22516,7 @@
         <v>4</v>
       </c>
       <c r="D1058" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="1059" spans="1:4" x14ac:dyDescent="0.3">
@@ -22539,7 +22530,7 @@
         <v>5</v>
       </c>
       <c r="D1059" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="1060" spans="1:4" x14ac:dyDescent="0.3">
@@ -22553,7 +22544,7 @@
         <v>6</v>
       </c>
       <c r="D1060" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="1061" spans="1:4" x14ac:dyDescent="0.3">
@@ -22567,7 +22558,7 @@
         <v>7</v>
       </c>
       <c r="D1061" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="1062" spans="1:4" x14ac:dyDescent="0.3">
@@ -22581,7 +22572,7 @@
         <v>8</v>
       </c>
       <c r="D1062" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="1063" spans="1:4" x14ac:dyDescent="0.3">
@@ -22595,7 +22586,7 @@
         <v>9</v>
       </c>
       <c r="D1063" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="1064" spans="1:4" x14ac:dyDescent="0.3">
@@ -22609,7 +22600,7 @@
         <v>10</v>
       </c>
       <c r="D1064" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="1065" spans="1:4" x14ac:dyDescent="0.3">
@@ -22623,7 +22614,7 @@
         <v>11</v>
       </c>
       <c r="D1065" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="1066" spans="1:4" x14ac:dyDescent="0.3">
@@ -22637,7 +22628,7 @@
         <v>12</v>
       </c>
       <c r="D1066" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="1067" spans="1:4" x14ac:dyDescent="0.3">
@@ -22651,7 +22642,7 @@
         <v>13</v>
       </c>
       <c r="D1067" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="1068" spans="1:4" x14ac:dyDescent="0.3">
@@ -22665,7 +22656,7 @@
         <v>14</v>
       </c>
       <c r="D1068" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="1069" spans="1:4" x14ac:dyDescent="0.3">
@@ -22679,7 +22670,7 @@
         <v>17</v>
       </c>
       <c r="D1069" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="1070" spans="1:4" x14ac:dyDescent="0.3">
@@ -22693,7 +22684,7 @@
         <v>20</v>
       </c>
       <c r="D1070" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="1071" spans="1:4" x14ac:dyDescent="0.3">
@@ -22707,7 +22698,7 @@
         <v>21</v>
       </c>
       <c r="D1071" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="1072" spans="1:4" x14ac:dyDescent="0.3">
@@ -22721,7 +22712,7 @@
         <v>22</v>
       </c>
       <c r="D1072" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="1073" spans="1:4" x14ac:dyDescent="0.3">
@@ -22735,7 +22726,7 @@
         <v>23</v>
       </c>
       <c r="D1073" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="1074" spans="1:4" x14ac:dyDescent="0.3">
@@ -22749,7 +22740,7 @@
         <v>24</v>
       </c>
       <c r="D1074" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="1075" spans="1:4" x14ac:dyDescent="0.3">
@@ -22763,7 +22754,7 @@
         <v>25</v>
       </c>
       <c r="D1075" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="1076" spans="1:4" x14ac:dyDescent="0.3">
@@ -22777,7 +22768,7 @@
         <v>26</v>
       </c>
       <c r="D1076" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="1077" spans="1:4" x14ac:dyDescent="0.3">
@@ -22791,7 +22782,7 @@
         <v>27</v>
       </c>
       <c r="D1077" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="1078" spans="1:4" x14ac:dyDescent="0.3">
@@ -22805,7 +22796,7 @@
         <v>28</v>
       </c>
       <c r="D1078" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="1079" spans="1:4" x14ac:dyDescent="0.3">
@@ -22833,7 +22824,7 @@
         <v>1</v>
       </c>
       <c r="D1080" s="15" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="1081" spans="1:4" x14ac:dyDescent="0.3">
@@ -22847,7 +22838,7 @@
         <v>2</v>
       </c>
       <c r="D1081" s="15" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="1082" spans="1:4" x14ac:dyDescent="0.3">
@@ -22861,7 +22852,7 @@
         <v>3</v>
       </c>
       <c r="D1082" s="15" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="1083" spans="1:4" x14ac:dyDescent="0.3">
@@ -22875,7 +22866,7 @@
         <v>4</v>
       </c>
       <c r="D1083" s="15" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="1084" spans="1:4" x14ac:dyDescent="0.3">
@@ -22889,7 +22880,7 @@
         <v>5</v>
       </c>
       <c r="D1084" s="15" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="1085" spans="1:4" x14ac:dyDescent="0.3">
@@ -22903,7 +22894,7 @@
         <v>6</v>
       </c>
       <c r="D1085" s="15" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="1086" spans="1:4" x14ac:dyDescent="0.3">
@@ -22917,7 +22908,7 @@
         <v>7</v>
       </c>
       <c r="D1086" s="15" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="1087" spans="1:4" x14ac:dyDescent="0.3">
@@ -22931,7 +22922,7 @@
         <v>8</v>
       </c>
       <c r="D1087" s="15" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="1088" spans="1:4" x14ac:dyDescent="0.3">
@@ -22945,7 +22936,7 @@
         <v>9</v>
       </c>
       <c r="D1088" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="1089" spans="1:4" x14ac:dyDescent="0.3">
@@ -22959,7 +22950,7 @@
         <v>10</v>
       </c>
       <c r="D1089" s="15" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="1090" spans="1:4" x14ac:dyDescent="0.3">
@@ -22973,7 +22964,7 @@
         <v>11</v>
       </c>
       <c r="D1090" s="15" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="1091" spans="1:4" x14ac:dyDescent="0.3">
@@ -22987,7 +22978,7 @@
         <v>12</v>
       </c>
       <c r="D1091" s="15" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="1092" spans="1:4" x14ac:dyDescent="0.3">
@@ -23001,7 +22992,7 @@
         <v>99</v>
       </c>
       <c r="D1092" s="15" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="1093" spans="1:4" x14ac:dyDescent="0.3">
@@ -23015,7 +23006,7 @@
         <v>1</v>
       </c>
       <c r="D1093" s="15" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="1094" spans="1:4" x14ac:dyDescent="0.3">
@@ -23029,7 +23020,7 @@
         <v>2</v>
       </c>
       <c r="D1094" s="15" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="1095" spans="1:4" x14ac:dyDescent="0.3">
@@ -23043,7 +23034,7 @@
         <v>3</v>
       </c>
       <c r="D1095" s="15" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="1096" spans="1:4" x14ac:dyDescent="0.3">
@@ -23057,7 +23048,7 @@
         <v>4</v>
       </c>
       <c r="D1096" s="15" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="1097" spans="1:4" x14ac:dyDescent="0.3">
@@ -23085,7 +23076,7 @@
         <v>99</v>
       </c>
       <c r="D1098" s="15" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="1099" spans="1:4" x14ac:dyDescent="0.3">
@@ -23337,7 +23328,7 @@
         <v>1</v>
       </c>
       <c r="D1116" s="16" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="1117" spans="1:4" x14ac:dyDescent="0.3">
@@ -23351,7 +23342,7 @@
         <v>1</v>
       </c>
       <c r="D1117" s="15" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="1118" spans="1:4" x14ac:dyDescent="0.3">
@@ -23365,7 +23356,7 @@
         <v>2</v>
       </c>
       <c r="D1118" s="15" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="1119" spans="1:4" x14ac:dyDescent="0.3">
@@ -23379,7 +23370,7 @@
         <v>3</v>
       </c>
       <c r="D1119" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="1120" spans="1:4" x14ac:dyDescent="0.3">
@@ -23393,7 +23384,7 @@
         <v>4</v>
       </c>
       <c r="D1120" s="15" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="1121" spans="1:4" x14ac:dyDescent="0.3">
@@ -23407,7 +23398,7 @@
         <v>5</v>
       </c>
       <c r="D1121" s="15" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="1122" spans="1:4" x14ac:dyDescent="0.3">
@@ -23421,7 +23412,7 @@
         <v>6</v>
       </c>
       <c r="D1122" s="15" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="1123" spans="1:4" x14ac:dyDescent="0.3">
@@ -23435,7 +23426,7 @@
         <v>7</v>
       </c>
       <c r="D1123" s="15" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="1124" spans="1:4" x14ac:dyDescent="0.3">
@@ -23449,7 +23440,7 @@
         <v>8</v>
       </c>
       <c r="D1124" s="15" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="1125" spans="1:4" x14ac:dyDescent="0.3">
@@ -23463,7 +23454,7 @@
         <v>9</v>
       </c>
       <c r="D1125" s="15" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="1126" spans="1:4" x14ac:dyDescent="0.3">
@@ -23477,7 +23468,7 @@
         <v>10</v>
       </c>
       <c r="D1126" s="15" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="1127" spans="1:4" x14ac:dyDescent="0.3">
@@ -23491,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="D1127" s="15" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="1128" spans="1:4" x14ac:dyDescent="0.3">
@@ -23505,7 +23496,7 @@
         <v>1</v>
       </c>
       <c r="D1128" s="15" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="1129" spans="1:4" x14ac:dyDescent="0.3">
@@ -23519,7 +23510,7 @@
         <v>2</v>
       </c>
       <c r="D1129" s="15" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="1130" spans="1:4" x14ac:dyDescent="0.3">
@@ -23533,7 +23524,7 @@
         <v>3</v>
       </c>
       <c r="D1130" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="1131" spans="1:4" x14ac:dyDescent="0.3">
@@ -23547,7 +23538,7 @@
         <v>4</v>
       </c>
       <c r="D1131" s="15" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="1132" spans="1:4" x14ac:dyDescent="0.3">
@@ -23561,7 +23552,7 @@
         <v>5</v>
       </c>
       <c r="D1132" s="15" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="1133" spans="1:4" x14ac:dyDescent="0.3">
@@ -23575,7 +23566,7 @@
         <v>6</v>
       </c>
       <c r="D1133" s="15" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="1134" spans="1:4" x14ac:dyDescent="0.3">
@@ -23589,7 +23580,7 @@
         <v>7</v>
       </c>
       <c r="D1134" s="15" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="1135" spans="1:4" x14ac:dyDescent="0.3">
@@ -23603,7 +23594,7 @@
         <v>8</v>
       </c>
       <c r="D1135" s="15" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="1136" spans="1:4" x14ac:dyDescent="0.3">
@@ -23617,7 +23608,7 @@
         <v>1</v>
       </c>
       <c r="D1136" s="15" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="1137" spans="1:4" x14ac:dyDescent="0.3">
@@ -23631,7 +23622,7 @@
         <v>2</v>
       </c>
       <c r="D1137" s="15" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="1138" spans="1:4" x14ac:dyDescent="0.3">
@@ -23645,7 +23636,7 @@
         <v>3</v>
       </c>
       <c r="D1138" s="15" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="1139" spans="1:4" x14ac:dyDescent="0.3">
@@ -23659,7 +23650,7 @@
         <v>4</v>
       </c>
       <c r="D1139" s="15" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="1140" spans="1:4" x14ac:dyDescent="0.3">
@@ -23673,7 +23664,7 @@
         <v>5</v>
       </c>
       <c r="D1140" s="15" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="1141" spans="1:4" x14ac:dyDescent="0.3">
@@ -23687,7 +23678,7 @@
         <v>6</v>
       </c>
       <c r="D1141" s="15" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="1142" spans="1:4" x14ac:dyDescent="0.3">
@@ -23701,7 +23692,7 @@
         <v>7</v>
       </c>
       <c r="D1142" s="15" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="1143" spans="1:4" x14ac:dyDescent="0.3">
@@ -23715,7 +23706,7 @@
         <v>8</v>
       </c>
       <c r="D1143" s="15" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="1144" spans="1:4" x14ac:dyDescent="0.3">
@@ -23729,7 +23720,7 @@
         <v>9</v>
       </c>
       <c r="D1144" s="15" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="1145" spans="1:4" x14ac:dyDescent="0.3">
@@ -23743,7 +23734,7 @@
         <v>10</v>
       </c>
       <c r="D1145" s="15" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="1146" spans="1:4" x14ac:dyDescent="0.3">
@@ -23757,7 +23748,7 @@
         <v>11</v>
       </c>
       <c r="D1146" s="15" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="1147" spans="1:4" x14ac:dyDescent="0.3">
@@ -23771,7 +23762,7 @@
         <v>12</v>
       </c>
       <c r="D1147" s="15" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="1148" spans="1:4" x14ac:dyDescent="0.3">
@@ -23785,7 +23776,7 @@
         <v>13</v>
       </c>
       <c r="D1148" s="15" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="1149" spans="1:4" x14ac:dyDescent="0.3">
@@ -23799,7 +23790,7 @@
         <v>99</v>
       </c>
       <c r="D1149" s="15" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="1150" spans="1:4" x14ac:dyDescent="0.3">
@@ -23841,7 +23832,7 @@
         <v>99</v>
       </c>
       <c r="D1152" s="15" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="1153" spans="1:4" x14ac:dyDescent="0.3">
@@ -23855,7 +23846,7 @@
         <v>0</v>
       </c>
       <c r="D1153" s="15" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="1154" spans="1:4" x14ac:dyDescent="0.3">
@@ -23869,7 +23860,7 @@
         <v>1</v>
       </c>
       <c r="D1154" s="15" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="1155" spans="1:4" x14ac:dyDescent="0.3">
@@ -23883,7 +23874,7 @@
         <v>2</v>
       </c>
       <c r="D1155" s="15" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="1156" spans="1:4" x14ac:dyDescent="0.3">
@@ -23897,7 +23888,7 @@
         <v>3</v>
       </c>
       <c r="D1156" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="1157" spans="1:4" x14ac:dyDescent="0.3">
@@ -23911,7 +23902,7 @@
         <v>4</v>
       </c>
       <c r="D1157" s="15" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="1158" spans="1:4" x14ac:dyDescent="0.3">
@@ -23925,7 +23916,7 @@
         <v>5</v>
       </c>
       <c r="D1158" s="15" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="1159" spans="1:4" x14ac:dyDescent="0.3">
@@ -23939,7 +23930,7 @@
         <v>6</v>
       </c>
       <c r="D1159" s="15" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="1160" spans="1:4" x14ac:dyDescent="0.3">
@@ -23953,7 +23944,7 @@
         <v>7</v>
       </c>
       <c r="D1160" s="15" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="1161" spans="1:4" x14ac:dyDescent="0.3">
@@ -23967,7 +23958,7 @@
         <v>8</v>
       </c>
       <c r="D1161" s="15" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="1162" spans="1:4" x14ac:dyDescent="0.3">
@@ -23981,7 +23972,7 @@
         <v>9</v>
       </c>
       <c r="D1162" s="15" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="1163" spans="1:4" x14ac:dyDescent="0.3">
@@ -23995,7 +23986,7 @@
         <v>10</v>
       </c>
       <c r="D1163" s="15" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="1164" spans="1:4" x14ac:dyDescent="0.3">
@@ -24023,7 +24014,7 @@
         <v>1</v>
       </c>
       <c r="D1165" s="15" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="1166" spans="1:4" x14ac:dyDescent="0.3">
@@ -24037,7 +24028,7 @@
         <v>1</v>
       </c>
       <c r="D1166" s="15" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="1167" spans="1:4" x14ac:dyDescent="0.3">
@@ -24051,7 +24042,7 @@
         <v>2</v>
       </c>
       <c r="D1167" s="15" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="1168" spans="1:4" x14ac:dyDescent="0.3">
@@ -24065,7 +24056,7 @@
         <v>3</v>
       </c>
       <c r="D1168" s="15" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="1169" spans="1:4" x14ac:dyDescent="0.3">
@@ -24079,7 +24070,7 @@
         <v>4</v>
       </c>
       <c r="D1169" s="15" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="1170" spans="1:4" x14ac:dyDescent="0.3">
@@ -24112,7 +24103,7 @@
     </row>
     <row r="1172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1172" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1172" s="10"/>
       <c r="C1172" s="10"/>
@@ -24120,7 +24111,7 @@
     </row>
     <row r="1173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1173" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1173" s="10"/>
       <c r="C1173" s="10"/>
@@ -24128,7 +24119,7 @@
     </row>
     <row r="1174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1174" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1174" s="10"/>
       <c r="C1174" s="10"/>
@@ -24136,7 +24127,7 @@
     </row>
     <row r="1175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1175" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1175" s="10"/>
       <c r="C1175" s="10"/>
@@ -24144,7 +24135,7 @@
     </row>
     <row r="1176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1176" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1176" s="10"/>
       <c r="C1176" s="10"/>
@@ -24152,7 +24143,7 @@
     </row>
     <row r="1177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1177" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1177" s="10"/>
       <c r="C1177" s="10"/>
@@ -24160,7 +24151,7 @@
     </row>
     <row r="1178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1178" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1178" s="10"/>
       <c r="C1178" s="10"/>
@@ -24168,7 +24159,7 @@
     </row>
     <row r="1179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1179" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1179" s="10"/>
       <c r="C1179" s="10"/>
@@ -24176,7 +24167,7 @@
     </row>
     <row r="1180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1180" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1180" s="10"/>
       <c r="C1180" s="10"/>
@@ -24184,7 +24175,7 @@
     </row>
     <row r="1181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1181" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1181" s="10"/>
       <c r="C1181" s="10"/>
@@ -24192,7 +24183,7 @@
     </row>
     <row r="1182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1182" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1182" s="10"/>
       <c r="C1182" s="10"/>
@@ -24200,7 +24191,7 @@
     </row>
     <row r="1183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1183" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1183" s="10"/>
       <c r="C1183" s="10"/>
@@ -24208,7 +24199,7 @@
     </row>
     <row r="1184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1184" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1184" s="10"/>
       <c r="C1184" s="10"/>
@@ -24216,7 +24207,7 @@
     </row>
     <row r="1185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1185" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1185" s="10"/>
       <c r="C1185" s="10"/>
@@ -24224,7 +24215,7 @@
     </row>
     <row r="1186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1186" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1186" s="10"/>
       <c r="C1186" s="10"/>
@@ -24232,7 +24223,7 @@
     </row>
     <row r="1187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1187" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1187" s="10"/>
       <c r="C1187" s="10"/>
@@ -24240,7 +24231,7 @@
     </row>
     <row r="1188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1188" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1188" s="10"/>
       <c r="C1188" s="10"/>
@@ -24248,7 +24239,7 @@
     </row>
     <row r="1189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1189" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1189" s="10"/>
       <c r="C1189" s="10"/>
@@ -24256,7 +24247,7 @@
     </row>
     <row r="1190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1190" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1190" s="10"/>
       <c r="C1190" s="10"/>
@@ -24264,7 +24255,7 @@
     </row>
     <row r="1191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1191" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1191" s="10"/>
       <c r="C1191" s="10"/>
@@ -24272,7 +24263,7 @@
     </row>
     <row r="1192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1192" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1192" s="10"/>
       <c r="C1192" s="10"/>
@@ -24280,7 +24271,7 @@
     </row>
     <row r="1193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1193" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1193" s="10"/>
       <c r="C1193" s="10"/>
@@ -24288,7 +24279,7 @@
     </row>
     <row r="1194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1194" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1194" s="10"/>
       <c r="C1194" s="10"/>
@@ -24296,7 +24287,7 @@
     </row>
     <row r="1195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1195" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1195" s="10"/>
       <c r="C1195" s="10"/>
@@ -24304,7 +24295,7 @@
     </row>
     <row r="1196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1196" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1196" s="10"/>
       <c r="C1196" s="10"/>
@@ -24312,7 +24303,7 @@
     </row>
     <row r="1197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1197" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1197" s="10"/>
       <c r="C1197" s="10"/>
@@ -24320,7 +24311,7 @@
     </row>
     <row r="1198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1198" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1198" s="10"/>
       <c r="C1198" s="10"/>
@@ -24328,7 +24319,7 @@
     </row>
     <row r="1199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1199" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1199" s="10"/>
       <c r="C1199" s="10"/>
@@ -24336,7 +24327,7 @@
     </row>
     <row r="1200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1200" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1200" s="10"/>
       <c r="C1200" s="10"/>
@@ -24344,7 +24335,7 @@
     </row>
     <row r="1201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1201" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1201" s="10"/>
       <c r="C1201" s="10"/>
@@ -24352,7 +24343,7 @@
     </row>
     <row r="1202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1202" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1202" s="10"/>
       <c r="C1202" s="10"/>
@@ -24360,7 +24351,7 @@
     </row>
     <row r="1203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1203" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1203" s="10"/>
       <c r="C1203" s="10"/>
@@ -24368,7 +24359,7 @@
     </row>
     <row r="1204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1204" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1204" s="10"/>
       <c r="C1204" s="10"/>
@@ -24376,7 +24367,7 @@
     </row>
     <row r="1205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1205" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1205" s="10"/>
       <c r="C1205" s="10"/>
@@ -24384,7 +24375,7 @@
     </row>
     <row r="1206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1206" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1206" s="10"/>
       <c r="C1206" s="10"/>
@@ -24392,7 +24383,7 @@
     </row>
     <row r="1207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1207" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1207" s="10"/>
       <c r="C1207" s="10"/>
@@ -24400,7 +24391,7 @@
     </row>
     <row r="1208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1208" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1208" s="10"/>
       <c r="C1208" s="10"/>
@@ -24408,7 +24399,7 @@
     </row>
     <row r="1209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1209" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1209" s="10"/>
       <c r="C1209" s="10"/>
@@ -24416,7 +24407,7 @@
     </row>
     <row r="1210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1210" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1210" s="10"/>
       <c r="C1210" s="10"/>
@@ -24424,7 +24415,7 @@
     </row>
     <row r="1211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1211" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1211" s="10"/>
       <c r="C1211" s="10"/>
@@ -24432,7 +24423,7 @@
     </row>
     <row r="1212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1212" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1212" s="10"/>
       <c r="C1212" s="10"/>
@@ -24440,7 +24431,7 @@
     </row>
     <row r="1213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1213" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1213" s="10"/>
       <c r="C1213" s="10"/>
@@ -24448,7 +24439,7 @@
     </row>
     <row r="1214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1214" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1214" s="10"/>
       <c r="C1214" s="10"/>
@@ -24456,7 +24447,7 @@
     </row>
     <row r="1215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1215" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1215" s="10"/>
       <c r="C1215" s="10"/>
@@ -24464,7 +24455,7 @@
     </row>
     <row r="1216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1216" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1216" s="10"/>
       <c r="C1216" s="10"/>
@@ -24472,7 +24463,7 @@
     </row>
     <row r="1217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1217" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1217" s="10"/>
       <c r="C1217" s="10"/>
@@ -24480,7 +24471,7 @@
     </row>
     <row r="1218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1218" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1218" s="10"/>
       <c r="C1218" s="10"/>
@@ -24488,7 +24479,7 @@
     </row>
     <row r="1219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1219" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1219" s="10"/>
       <c r="C1219" s="10"/>
@@ -24496,7 +24487,7 @@
     </row>
     <row r="1220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1220" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1220" s="10"/>
       <c r="C1220" s="10"/>
@@ -24504,7 +24495,7 @@
     </row>
     <row r="1221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1221" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1221" s="10"/>
       <c r="C1221" s="10"/>
@@ -24512,7 +24503,7 @@
     </row>
     <row r="1222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1222" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1222" s="10"/>
       <c r="C1222" s="10"/>
@@ -24520,7 +24511,7 @@
     </row>
     <row r="1223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1223" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1223" s="10"/>
       <c r="C1223" s="10"/>
@@ -24528,7 +24519,7 @@
     </row>
     <row r="1224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1224" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1224" s="10"/>
       <c r="C1224" s="10"/>
@@ -24536,7 +24527,7 @@
     </row>
     <row r="1225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1225" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1225" s="10"/>
       <c r="C1225" s="10"/>
@@ -24544,7 +24535,7 @@
     </row>
     <row r="1226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1226" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1226" s="10"/>
       <c r="C1226" s="10"/>
@@ -24552,7 +24543,7 @@
     </row>
     <row r="1227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1227" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1227" s="10"/>
       <c r="C1227" s="10"/>
@@ -24560,7 +24551,7 @@
     </row>
     <row r="1228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1228" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1228" s="10"/>
       <c r="C1228" s="11"/>
@@ -24568,7 +24559,7 @@
     </row>
     <row r="1229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1229" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1229" s="10"/>
       <c r="C1229" s="10"/>
@@ -24576,7 +24567,7 @@
     </row>
     <row r="1230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1230" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1230" s="10"/>
       <c r="C1230" s="10"/>
@@ -24584,7 +24575,7 @@
     </row>
     <row r="1231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1231" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1231" s="10"/>
       <c r="C1231" s="10"/>
@@ -24592,7 +24583,7 @@
     </row>
     <row r="1232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1232" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1232" s="10"/>
       <c r="C1232" s="10"/>
@@ -24600,7 +24591,7 @@
     </row>
     <row r="1233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1233" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1233" s="10"/>
       <c r="C1233" s="10"/>
@@ -24608,7 +24599,7 @@
     </row>
     <row r="1234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1234" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1234" s="10"/>
       <c r="C1234" s="10"/>
@@ -24616,7 +24607,7 @@
     </row>
     <row r="1235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1235" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1235" s="10"/>
       <c r="C1235" s="10"/>
@@ -24624,7 +24615,7 @@
     </row>
     <row r="1236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1236" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1236" s="10"/>
       <c r="C1236" s="10"/>
@@ -24632,7 +24623,7 @@
     </row>
     <row r="1237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1237" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1237" s="10"/>
       <c r="C1237" s="10"/>
@@ -24640,7 +24631,7 @@
     </row>
     <row r="1238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1238" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1238" s="10"/>
       <c r="C1238" s="10"/>
@@ -24648,7 +24639,7 @@
     </row>
     <row r="1239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1239" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1239" s="10"/>
       <c r="C1239" s="10"/>
@@ -24656,7 +24647,7 @@
     </row>
     <row r="1240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1240" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1240" s="10"/>
       <c r="C1240" s="10"/>
@@ -24664,7 +24655,7 @@
     </row>
     <row r="1241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1241" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1241" s="10"/>
       <c r="C1241" s="10"/>
@@ -24672,7 +24663,7 @@
     </row>
     <row r="1242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1242" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1242" s="10"/>
       <c r="C1242" s="10"/>
@@ -24680,7 +24671,7 @@
     </row>
     <row r="1243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1243" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1243" s="10"/>
       <c r="C1243" s="10"/>
@@ -24688,7 +24679,7 @@
     </row>
     <row r="1244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1244" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1244" s="10"/>
       <c r="C1244" s="10"/>
@@ -24696,7 +24687,7 @@
     </row>
     <row r="1245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1245" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1245" s="10"/>
       <c r="C1245" s="10"/>
@@ -24704,7 +24695,7 @@
     </row>
     <row r="1246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1246" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1246" s="10"/>
       <c r="C1246" s="10"/>
@@ -24712,7 +24703,7 @@
     </row>
     <row r="1247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1247" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1247" s="10"/>
       <c r="C1247" s="10"/>
@@ -24720,7 +24711,7 @@
     </row>
     <row r="1248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1248" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1248" s="10"/>
       <c r="C1248" s="10"/>
@@ -24728,7 +24719,7 @@
     </row>
     <row r="1249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1249" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1249" s="10"/>
       <c r="C1249" s="10"/>
@@ -24747,7 +24738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6490E355-DE3F-4B54-85E8-C8A5C97C8648}">
   <dimension ref="B1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="44" workbookViewId="0">
+    <sheetView zoomScale="44" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -24765,13 +24756,13 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="31"/>
       <c r="C2" s="32" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D2" s="33" t="s">
         <v>218</v>
@@ -24789,16 +24780,16 @@
         <v>251</v>
       </c>
       <c r="I2" s="34" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="J2" s="34" t="s">
         <v>261</v>
       </c>
       <c r="K2" s="34" t="s">
+        <v>849</v>
+      </c>
+      <c r="L2" s="35" t="s">
         <v>850</v>
-      </c>
-      <c r="L2" s="35" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
@@ -24806,7 +24797,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D3" s="29">
         <v>1</v>
@@ -24849,7 +24840,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D4" s="29">
         <v>1</v>
@@ -24892,7 +24883,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D5" s="29">
         <v>1</v>
@@ -24935,7 +24926,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D6" s="29">
         <v>1</v>
@@ -24978,7 +24969,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D7" s="29">
         <v>1</v>
@@ -25021,7 +25012,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D8" s="29">
         <v>1</v>
@@ -25064,7 +25055,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D9" s="29">
         <v>1</v>
@@ -25107,7 +25098,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D10" s="29">
         <v>1</v>
@@ -25150,7 +25141,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D11" s="29">
         <v>1</v>
@@ -25193,7 +25184,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D12" s="29">
         <v>1</v>
@@ -25236,7 +25227,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D13" s="29">
         <v>1</v>
@@ -25279,7 +25270,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D14" s="29">
         <v>1</v>
@@ -25322,7 +25313,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D15" s="29">
         <v>1</v>
@@ -25365,7 +25356,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D16" s="29">
         <v>1</v>
@@ -25408,7 +25399,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D17" s="29"/>
       <c r="E17" s="29">
@@ -25446,7 +25437,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="29">
@@ -25484,7 +25475,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D19" s="30"/>
       <c r="E19" s="30"/>
@@ -25504,7 +25495,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
@@ -25522,7 +25513,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D21" s="30"/>
       <c r="E21" s="30"/>
@@ -25540,7 +25531,7 @@
         <v>19</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D22" s="30"/>
       <c r="E22" s="30"/>
@@ -25560,7 +25551,7 @@
         <v>20</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D23" s="39"/>
       <c r="E23" s="39"/>
@@ -25580,7 +25571,7 @@
         <v>21</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D24" s="29">
         <v>1</v>
@@ -25623,7 +25614,7 @@
         <v>22</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D25" s="29"/>
       <c r="E25" s="29">
@@ -25661,7 +25652,7 @@
         <v>23</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D26" s="29"/>
       <c r="E26" s="29">
@@ -25702,7 +25693,7 @@
         <v>24</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D27" s="29"/>
       <c r="E27" s="29">
@@ -25740,7 +25731,7 @@
         <v>25</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D28" s="29"/>
       <c r="E28" s="29">
@@ -25778,7 +25769,7 @@
         <v>26</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D29" s="29"/>
       <c r="E29" s="29">
@@ -25816,7 +25807,7 @@
         <v>27</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D30" s="29">
         <v>1</v>
@@ -25899,7 +25890,7 @@
     <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B33" s="31"/>
       <c r="C33" s="32" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D33" s="33" t="s">
         <v>218</v>
@@ -25917,16 +25908,16 @@
         <v>251</v>
       </c>
       <c r="I33" s="34" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="J33" s="34" t="s">
         <v>261</v>
       </c>
       <c r="K33" s="34" t="s">
+        <v>849</v>
+      </c>
+      <c r="L33" s="35" t="s">
         <v>850</v>
-      </c>
-      <c r="L33" s="35" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.3">
@@ -25934,7 +25925,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D34" s="29" t="str" cm="1">
         <f t="array" ref="D34">IF(D3=1,$C3,NA)</f>
@@ -25979,7 +25970,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D35" s="29" t="str" cm="1">
         <f t="array" ref="D35">IF(D4=1,$C4,NA)</f>
@@ -26024,7 +26015,7 @@
         <v>3</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D36" s="29" t="str" cm="1">
         <f t="array" ref="D36">IF(D5=1,$C5,NA)</f>
@@ -26069,7 +26060,7 @@
         <v>4</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D37" s="29" t="str" cm="1">
         <f t="array" ref="D37">IF(D6=1,$C6,NA)</f>
@@ -26114,7 +26105,7 @@
         <v>5</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D38" s="29" t="str" cm="1">
         <f t="array" ref="D38">IF(D7=1,$C7,NA)</f>
@@ -26159,7 +26150,7 @@
         <v>5</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D39" s="29" t="str" cm="1">
         <f t="array" ref="D39">IF(D8=1,$C8,NA)</f>
@@ -26204,7 +26195,7 @@
         <v>6</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D40" s="29" t="str" cm="1">
         <f t="array" ref="D40">IF(D9=1,$C9,NA)</f>
@@ -26249,7 +26240,7 @@
         <v>7</v>
       </c>
       <c r="C41" s="28" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D41" s="29" t="str" cm="1">
         <f t="array" ref="D41">IF(D10=1,$C10,NA)</f>
@@ -26294,7 +26285,7 @@
         <v>8</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D42" s="29" t="str" cm="1">
         <f t="array" ref="D42">IF(D11=1,$C11,NA)</f>
@@ -26339,7 +26330,7 @@
         <v>9</v>
       </c>
       <c r="C43" s="28" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D43" s="29" t="str" cm="1">
         <f t="array" ref="D43">IF(D12=1,$C12,NA)</f>
@@ -26384,7 +26375,7 @@
         <v>10</v>
       </c>
       <c r="C44" s="28" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D44" s="29" t="str" cm="1">
         <f t="array" ref="D44">IF(D13=1,$C13,NA)</f>
@@ -26429,7 +26420,7 @@
         <v>11</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D45" s="29" t="str" cm="1">
         <f t="array" ref="D45">IF(D14=1,$C14,NA)</f>
@@ -26474,7 +26465,7 @@
         <v>12</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D46" s="29" t="str" cm="1">
         <f t="array" ref="D46">IF(D15=1,$C15,NA)</f>
@@ -26519,7 +26510,7 @@
         <v>13</v>
       </c>
       <c r="C47" s="28" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D47" s="29" t="str" cm="1">
         <f t="array" ref="D47">IF(D16=1,$C16,NA)</f>
@@ -26564,7 +26555,7 @@
         <v>14</v>
       </c>
       <c r="C48" s="28" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D48" s="29" t="e" cm="1">
         <f t="array" ref="D48">IF(D17=1,$C17,NA)</f>
@@ -26609,7 +26600,7 @@
         <v>15</v>
       </c>
       <c r="C49" s="28" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D49" s="29" t="e" cm="1">
         <f t="array" ref="D49">IF(D18=1,$C18,NA)</f>
@@ -26654,7 +26645,7 @@
         <v>16</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D50" s="29" t="e" cm="1">
         <f t="array" ref="D50">IF(D19=1,$C19,NA)</f>
@@ -26699,7 +26690,7 @@
         <v>17</v>
       </c>
       <c r="C51" s="28" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D51" s="29" t="e" cm="1">
         <f t="array" ref="D51">IF(D20=1,$C20,NA)</f>
@@ -26744,7 +26735,7 @@
         <v>18</v>
       </c>
       <c r="C52" s="28" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D52" s="29" t="e" cm="1">
         <f t="array" ref="D52">IF(D21=1,$C21,NA)</f>
@@ -26789,7 +26780,7 @@
         <v>19</v>
       </c>
       <c r="C53" s="28" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D53" s="29" t="e" cm="1">
         <f t="array" ref="D53">IF(D22=1,$C22,NA)</f>
@@ -26834,7 +26825,7 @@
         <v>20</v>
       </c>
       <c r="C54" s="38" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D54" s="29" t="e" cm="1">
         <f t="array" ref="D54">IF(D23=1,$C23,NA)</f>
@@ -26879,7 +26870,7 @@
         <v>21</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D55" s="29" t="str" cm="1">
         <f t="array" ref="D55">IF(D24=1,$C24,NA)</f>
@@ -26924,7 +26915,7 @@
         <v>22</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D56" s="29" t="e" cm="1">
         <f t="array" ref="D56">IF(D25=1,$C25,NA)</f>
@@ -26969,7 +26960,7 @@
         <v>23</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D57" s="29" t="e" cm="1">
         <f t="array" ref="D57">IF(D26=1,$C26,NA)</f>
@@ -27014,7 +27005,7 @@
         <v>24</v>
       </c>
       <c r="C58" s="28" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D58" s="29" t="e" cm="1">
         <f t="array" ref="D58">IF(D27=1,$C27,NA)</f>
@@ -27059,7 +27050,7 @@
         <v>25</v>
       </c>
       <c r="C59" s="28" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D59" s="29" t="e" cm="1">
         <f t="array" ref="D59">IF(D28=1,$C28,NA)</f>
@@ -27104,7 +27095,7 @@
         <v>26</v>
       </c>
       <c r="C60" s="28" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D60" s="29" t="e" cm="1">
         <f t="array" ref="D60">IF(D29=1,$C29,NA)</f>
@@ -27149,7 +27140,7 @@
         <v>27</v>
       </c>
       <c r="C61" s="28" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D61" s="29" t="str" cm="1">
         <f t="array" ref="D61">IF(D30=1,$C30,NA)</f>
@@ -27249,15 +27240,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DAF1C2EA657697408CB953AA06FC5E67" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="80e0e087edfb34254437a441bee96d95">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="510e1e7e-c5a5-4544-8e07-1be0c6cbdf9c" xmlns:ns3="823ea3b8-34dc-4091-8fee-2d094d59e1e1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4b2cbe84f59c0c573fe705d42f6c243d" ns2:_="" ns3:_="">
     <xsd:import namespace="510e1e7e-c5a5-4544-8e07-1be0c6cbdf9c"/>
@@ -27480,6 +27462,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0484AD8C-6CB6-4457-8AC4-B0E20EA935BE}">
   <ds:schemaRefs>
@@ -27492,14 +27483,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB916731-A964-4E04-9BD4-392D0466A4C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{270F754C-79BF-42E0-9D1D-451A01D2376B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -27518,6 +27501,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB916731-A964-4E04-9BD4-392D0466A4C9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{3d234255-e20f-4205-88a5-9658a402999b}" enabled="0" method="" siteId="{3d234255-e20f-4205-88a5-9658a402999b}" removed="1"/>
